--- a/data/Data_Description.xlsx
+++ b/data/Data_Description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\dh01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC594702-1FED-4615-9BBB-39D4A9895B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C453737-11AD-4D92-961B-FD84367D29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED27216F-F538-4D64-9320-D4EB0271F876}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED27216F-F538-4D64-9320-D4EB0271F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>Represents the bracket of credit score (Poor, Standard, Good)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,12 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90483A4-C47C-4423-A853-E1585F0D648B}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -688,7 +686,7 @@
     <col min="2" max="2" width="62.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -696,15 +694,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -720,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -728,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -736,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,7 +745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -752,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -760,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -768,7 +769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -776,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -784,7 +785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -792,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -800,7 +801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -808,7 +809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -913,10 +914,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>

--- a/data/Data_Description.xlsx
+++ b/data/Data_Description.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\dh01\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dh01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C453737-11AD-4D92-961B-FD84367D29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4666E95C-DB23-4EF7-A11B-0CE7F50A2A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED27216F-F538-4D64-9320-D4EB0271F876}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,13 +272,43 @@
   <si>
     <t>삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Outstanding Debt - 1순위 요소, 개별요소로 등급 평가 가능 ? yes  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/minhhn313/credit-score-classification-votingclassifier81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nm =&gt; No?(kaggle) nm(오류,멘토)? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/zurainzeeshan/credit-score-analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/minhhn313/credit-score-classification-votingclassifier81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시각화툴 쓰자 ,  age 필요읎다 , outstanding debt, interest rate, num of loan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_of_Min_AMOUNT : 최소 카드 월별 사용액 or 지불해야할 최소 월할부 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. Removing these outliers may increase False Positive for Good Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +333,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,12 +393,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,9 +414,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90483A4-C47C-4423-A853-E1585F0D648B}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -817,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -825,7 +889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -833,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -841,7 +905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -849,7 +913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -857,7 +921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -865,7 +929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -873,15 +937,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -889,7 +959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -897,7 +967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -905,7 +975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -913,7 +983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -921,8 +991,38 @@
         <v>57</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A31" r:id="rId1" xr:uid="{81F2C907-43B8-4360-A4D8-22203625B13C}"/>
+    <hyperlink ref="A33" r:id="rId2" xr:uid="{90A3DFBC-59DE-4A1E-AB77-188CCC4D08B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Data_Description.xlsx
+++ b/data/Data_Description.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dh01\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24027AF-33D9-47FA-8D24-158D25F47CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="282">
   <si>
     <t>컬럼명</t>
   </si>
@@ -198,10 +207,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/zurainzeeshan/credit-score-analysis</t>
     </r>
@@ -212,10 +223,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/minhhn313/credit-score-classification-votingclassifier81</t>
     </r>
@@ -232,10 +245,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/samarchhetri/credit-score-classification</t>
     </r>
@@ -313,10 +328,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/vaibhavkumbhar/credit-score-classification-nn</t>
     </r>
@@ -445,10 +462,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/vaibhavkumbhar/credit-score-classification-xgb</t>
     </r>
@@ -462,10 +481,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/sayamkumar/credit-score-classification</t>
     </r>
@@ -566,10 +587,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/kirtanmatalia26/credit-score-classification-using-randomforest</t>
     </r>
@@ -583,10 +606,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/saloni1712/credit-score-classification</t>
     </r>
@@ -606,6 +631,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Age has 1788 unique values. This looks strange as general age range is from 0-100.</t>
     </r>
@@ -619,6 +646,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>SSN has 12501 unique values, whereas Customer_ID only has only 12500 unique values. There is a possibility that incorrect SSN value is entered for one of the customer as same person can't have multiple SSN.</t>
     </r>
@@ -632,6 +661,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Distribution of Credit_Scrore across different months is similar.</t>
     </r>
@@ -651,6 +682,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Delay from due date is concentrated between 0 to 30 days.</t>
     </r>
@@ -673,10 +706,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/sudhanshu2198/multi-class-credit-score-classification</t>
     </r>
@@ -684,10 +719,12 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">	Outstanding_Dedt,Interest_Rate,Delay_from_due_date</t>
     </r>
@@ -696,6 +733,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t> as these variables value increases, the proportion of Bad Credit_Score instances increases substantially, while Standard and Good Credit_Score instances proportion become meagre.</t>
     </r>
@@ -709,15 +748,19 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">	On the other hand increase in </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Credit_History_Age, Age</t>
     </r>
@@ -726,6 +769,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t> reults in decrease of Bad Credit_Score instances, jump in Standard and Good Credit_Score instance.</t>
     </r>
@@ -736,6 +781,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Interestingly credit_utilization_ratio seems to seems to have same distribution for all categories of credit score.</t>
     </r>
@@ -746,6 +793,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>The distribution of many features have non-gaussian distribution and largely different scales, therefore we will tranform feature variables.</t>
     </r>
@@ -756,10 +805,12 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>A person who has taken large sum of money at high interest rate with less salary, financial discipline and savings are more likely to have high no of delayed payments, looking for more credit to pay off loans, ending up with high interest rate and large debt.</t>
     </r>
@@ -770,15 +821,19 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">	We can see </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Credit_Mix</t>
     </r>
@@ -787,15 +842,19 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t> and </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Payment_of_Min_Amount</t>
     </r>
@@ -804,6 +863,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t> influences the categories of Credit_Score</t>
     </r>
@@ -814,6 +875,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>If someone has made Payment_of_Min_Amount, poor score have higher outstanding debt than standard and good debt, while if someone has not made Payment_of_Min_Amount then outstanding debt have no impact on credit score.</t>
     </r>
@@ -824,6 +887,8 @@
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Theses charts shows density distribution of credit scores categories using bivariate analysis.</t>
     </r>
@@ -831,10 +896,12 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Overlapping instances zones are places where instances are mostly misclassified, seeing the data ensemble based learning methods will be best, while linear models will be ineffective because of presence of complex non-linear relationship.SVM will be time consuming because of large dataset size, overlapping of instances</t>
     </r>
@@ -845,10 +912,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/sagirahamim3/eda-dp-fe-fcnn-rf-knn-xgb-hgdb-ensemble-acc-85</t>
     </r>
@@ -900,10 +969,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>https://www.kaggle.com/code/ahmedelrawy/credit-score-classification-acc-95</t>
     </r>
@@ -919,47 +990,596 @@
   </si>
   <si>
     <t>3. 모델 나온 것들 정리 : Random Forest, Extra Tree, KNN, XGB, Histogram, CAt P, BAgging</t>
+  </si>
+  <si>
+    <t>한비</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age, Annual_Income, Num_of_Loan, Num_of_Delayed_Payment, Changed_Credit_Limit, Amount_invested_monthly, Outstanding_Debt Credit_Mix, Monthly_Balance</t>
+  </si>
+  <si>
+    <t>def fix_nums(num): for col in col_to_numerical :  df[col] = df[col].apply(fix_nums)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 범주형 변수에 대한 원형 차트</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이론적으로 계좌를 개설하려면 법적 연령이어야 합니다. 이러한 이유로 연령이 18세 미만인 레코드와 연령이 120세를 초과하는 레코드는 삭제합니다.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay_from_due_date는 시간이므로 그것이 음수라는 것은 말이 되지 않습니다.</t>
+  </si>
+  <si>
+    <t>신용카드의 이자율은 보통 20%를 넘지 않습니다.</t>
+  </si>
+  <si>
+    <t>20개를 초과하는 신용 ​​카드의 수도 비정상적인 데이터로 간주됩니다.</t>
+  </si>
+  <si>
+    <t>df['Payment_of_Min_Amount'].replace("NM","No",inplace=True)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit mix 를 분류 , 각 변수별 데이터 전처리 도움 될것같음.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞 정리 보고서 쓸 때 참고할만 함.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 RF</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.countplot(x=df["Occupation"])</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>eda 만 있음 ..?</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/clkmuhammed/credit-score-multi-class-classification-part-2-ml</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/wars23/credit-score</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/antonioprezmuoz/trabajo-mineria-de-datos-ii</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/kaanvural/credit-score-classification-5-models-84-f1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF055BE0"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>histplot(df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Credit_Score'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>], shrink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF055BE0"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불균형함을 보여줌</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">object 형 int 형 나눠줌 </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_of_loan 및 age를 제외한 모든 열은 인코딩 또는 절단에 고유한 값으로 형식적으로 보입니다</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_bank_accounts -1, 0 을 1로 바꿔주고, 최대를 11로 설정함.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_of_loan max will be 10, min will be 0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_of_delayed_payment : 음수값은 0으로, 70보다 큰 값은 제곱근처리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.5 IQR은 이상값을 감지하는 데 사용됩니다. 그러나 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2 IQR을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사용하여 더 많은 데이터를 포함할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove outliers</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories_to_encode = ['credit_history_age_group', # 6 feature 
+                        "age_group",   # 4 feature
+                        "payment_behaviour", # 7 feature
+                        "payment_of_min_amount", # 3 feature
+                        "credit_mix", # 4 feature
+                        "month",    # 12 feature
+                        "occupation" # 9 feature
+                       ]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>인코딩 카테고리 = 원핫엔코더</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>if skewness &gt; 1 or skewness &lt; -1:
+        cols_to_normalize.append(col)
+    else:
+        cols_to_standardize.append(col)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용할 스케일링 방법을 결정하기 위해 왜도를 확인합니다. </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>pca = PCA()</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XGB 0.77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF 0.84 </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/hidzqialbaqir/credit-score-prediction</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주형, 수치평 변수 일변량, 이변량 분석</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수중요도 그래프 참고 정도만..볼게없음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/hongsikkim0/credit-score-classification-hong-sik-kim</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF =  0.8064</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET = 0.79285</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/neelabhabanerjee/creditscoreprediction-accuracy-82</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드 사용 나이 분포</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Also, there's this interesting observation that people</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> investing less </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>than 85 are more likely to have poor credit score than good credit score whereas it's the opposite for peole investing more than 85.</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Also, everyone are more likely to have standard credit score irrespective of their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>annual income</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> which is pretty surprising</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 변수의 분포를 보여주며 설명 잘되어있음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>So, the total Emi per month doesnt contribute to the quality of credit score.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment_of_Min_Amount 1, 0 으로 나눔</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lazypredict</t>
+  </si>
+  <si>
+    <t>Python AutoML 라이브러리 중 하나인 Lazypredict를 이용해 여러 ML 모델들을 동시에 학습</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>다만, 파라미터를 조정하는 기능은 따로 제공되지 않는다는 한계</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RandomForestClassifier             0.82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtraTreesClassifier               0.81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaggingClassifier                  0.80 </t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/supawitongkariyapong/project-credit-score-classification</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment_Behaviour 1,2,3,4,…</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>'NM'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Roboto Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>scaler = MinMaxScaler()</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF = 0.77</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/kaushalkrishna2000/credit-prediction-multiclass</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE DATAFRAME 참고정도</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A majority of our customers spend low on small value payments, followed by High spent medium value payments.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/anamsken/loan-eligibility-eda</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 변수별 설명정도만.. </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/subandhu/creditscorecls</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Erroneous issues in categorical data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>are as follows
+Age column has outliers due to incorrectly entered age
+Occupation &amp; Credit Mix have "_" which can be changed to "Not Specified"
+Annual Income has leading "__" which need to be removed and converted to int64
+No. of Loan, Outstanding Debt and Delayed payment have the same issue as 3
+Credit history age must be changed to numerical in terms of months
+Payment Behaviour has an erroneous class which can be relabelled
+Type of Loan and Monthly balance can be rechecked after these operations</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/arvynathaniel/credit-score-classification-cleaning-ml</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서론 참고 </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전체적인 설명은 괜찮아 보이나 성능 좋지 못함. </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/mihirulakshitha/02-project-data-cleaning</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제에 대한 설명 나와있음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/shalusingh11/credit-data-analysis-eda</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Months_converter = history_Age 개월로 변환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 데이터 설명만 나와있음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 약 49세의 사람들은 이름 아래에 최소 대출 수를 가지고 있습니다.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.85  어떤 모델을 사용했는지 모르겠음.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 데이터 전처리 할 때 참고하면 좋을 듯함.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>More the Customer has less Monthly inhand Salary more he where Delayed from Due Date but at the same time, There are peole who delayed from the due date but also have a good credit score.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/mohamedramadanyakoub/credit-score-classification-cleaning-eda-modling</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>People who don't use the credit card so much but also pay small portion of the credit card has the majority on the outstanding debt (Low_spent_Small_value_payments) and the Category after that which has the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2nd most outstanding debt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> the people who (Medium_spent_Medium_value_payments).
+The people who have the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>least outstanding debt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> are Hight_spent_High_value_payments.</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -990,15 +1610,129 @@
       <sz val="14"/>
       <color indexed="13"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="13"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBB2323"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF055BE0"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBB2323"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color rgb="FF494E52"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,8 +1751,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1086,131 +1832,269 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF2F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="b3000000"/>
-      <rgbColor rgb="ff055be0"/>
-      <rgbColor rgb="ff3c4043"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="B3000000"/>
+      <rgbColor rgb="FF055BE0"/>
+      <rgbColor rgb="FF3C4043"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1224,9 +2108,15 @@
       <xdr:row>181</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="텍스트"/>
+        <xdr:cNvPr id="2" name="텍스트">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1248,7 +2138,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1267,9 +2157,15 @@
       <xdr:row>181</xdr:row>
       <xdr:rowOff>15455</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="별"/>
+        <xdr:cNvPr id="3" name="별">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1300,17 +2196,149 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1255436</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50CB05A8-E29F-A3A4-6B57-05F290ACA125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1851660" y="61638180"/>
+          <a:ext cx="1232576" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2712721</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4256507</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932063A9-EC26-AD75-10FA-B1DB701F4DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4541521" y="65600580"/>
+          <a:ext cx="1543786" cy="1150620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2074749</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072ECDE0-94C6-DBD6-BE32-068E26D86753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="70294500"/>
+          <a:ext cx="2074749" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -1512,7 +2540,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1530,7 +2558,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1559,7 +2587,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1584,7 +2612,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +2637,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1634,7 +2662,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,7 +2687,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1684,7 +2712,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +2737,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1734,7 +2762,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1759,7 +2787,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1772,9 +2800,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1791,7 +2825,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1809,7 +2843,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1834,7 +2868,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1859,7 +2893,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1884,7 +2918,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1909,7 +2943,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1934,7 +2968,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1959,7 +2993,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1984,7 +3018,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2009,7 +3043,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2034,7 +3068,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,9 +3081,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2063,7 +3103,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2081,7 +3121,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2110,7 +3150,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2135,7 +3175,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2160,7 +3200,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2185,7 +3225,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2210,7 +3250,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2235,7 +3275,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2260,7 +3300,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2285,7 +3325,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2310,7 +3350,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2323,35 +3363,44 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K348"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6719" style="1" customWidth="1"/>
-    <col min="3" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.69921875" style="1" customWidth="1"/>
+    <col min="3" max="12" width="8.796875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -2364,14 +3413,14 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4"/>
@@ -2383,11 +3432,11 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
@@ -2400,11 +3449,11 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3"/>
@@ -2417,11 +3466,11 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3"/>
@@ -2434,11 +3483,11 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
@@ -2451,11 +3500,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="5">
+    <row r="7" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3"/>
@@ -2468,11 +3517,11 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3"/>
@@ -2485,11 +3534,11 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3"/>
@@ -2502,11 +3551,11 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3"/>
@@ -2519,11 +3568,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3"/>
@@ -2536,11 +3585,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3"/>
@@ -2553,11 +3602,11 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3"/>
@@ -2570,11 +3619,11 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="5">
+    <row r="14" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3"/>
@@ -2587,11 +3636,11 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="5">
+    <row r="15" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3"/>
@@ -2604,11 +3653,11 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="5">
+    <row r="16" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3"/>
@@ -2621,11 +3670,11 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="5">
+    <row r="17" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="3"/>
@@ -2638,11 +3687,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="5">
+    <row r="18" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3"/>
@@ -2655,11 +3704,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="5">
+    <row r="19" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3"/>
@@ -2672,11 +3721,11 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="5">
+    <row r="20" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="3"/>
@@ -2689,11 +3738,11 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="5">
+    <row r="21" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="6">
+      <c r="B21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="3"/>
@@ -2706,11 +3755,11 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="5">
+    <row r="22" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="3"/>
@@ -2723,11 +3772,11 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="5">
+    <row r="23" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s" s="6">
+      <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="3"/>
@@ -2740,14 +3789,14 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="4"/>
@@ -2757,15 +3806,15 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" t="s" s="9">
+      <c r="K24" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="5">
+    <row r="25" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s" s="6">
+      <c r="B25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="3"/>
@@ -2778,11 +3827,11 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="5">
+    <row r="26" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="3"/>
@@ -2795,11 +3844,11 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="5">
+    <row r="27" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s" s="6">
+      <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="3"/>
@@ -2812,11 +3861,11 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="5">
+    <row r="28" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s" s="6">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="3"/>
@@ -2829,11 +3878,11 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="5">
+    <row r="29" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s" s="6">
+      <c r="B29" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="3"/>
@@ -2846,7 +3895,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:11" ht="16.05" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="4"/>
@@ -2859,12 +3908,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="11">
+    <row r="31" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" t="s" s="9">
+      <c r="C31" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="4"/>
@@ -2876,7 +3925,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:11" ht="16.05" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2889,12 +3938,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="11">
+    <row r="33" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A33" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" t="s" s="9">
+      <c r="C33" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="4"/>
@@ -2906,10 +3955,10 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:11" ht="16.05" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" t="s" s="9">
+      <c r="C34" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="4"/>
@@ -2921,10 +3970,10 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:11" ht="16.05" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" t="s" s="12">
+      <c r="C35" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="4"/>
@@ -2936,12 +3985,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="9">
+    <row r="36" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" t="s" s="12">
+      <c r="C36" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="4"/>
@@ -2953,8 +4002,8 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="9">
+    <row r="37" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="4"/>
@@ -2968,12 +4017,12 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="9">
+    <row r="38" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A38" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" t="s" s="12">
+      <c r="C38" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="4"/>
@@ -2985,8 +4034,8 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="9">
+    <row r="39" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="4"/>
@@ -3000,10 +4049,10 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:11" ht="16.05" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" t="s" s="12">
+      <c r="C40" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="4"/>
@@ -3015,10 +4064,10 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" ht="39.8" customHeight="1">
+    <row r="41" spans="1:11" ht="39.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" t="s" s="14">
+      <c r="C41" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
@@ -3030,10 +4079,10 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:11" ht="16.05" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" t="s" s="12">
+      <c r="C42" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="4"/>
@@ -3045,10 +4094,10 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:11" ht="16.05" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" t="s" s="12">
+      <c r="C43" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="4"/>
@@ -3060,7 +4109,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:11" ht="16.05" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="13"/>
@@ -3073,10 +4122,10 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:11" ht="16.05" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" t="s" s="12">
+      <c r="C45" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D45" s="4"/>
@@ -3088,7 +4137,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:11" ht="16.05" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="13"/>
@@ -3101,12 +4150,12 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" ht="191.8" customHeight="1">
-      <c r="A47" t="s" s="9">
+    <row r="47" spans="1:11" ht="191.85" customHeight="1">
+      <c r="A47" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" t="s" s="16">
+      <c r="C47" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="4"/>
@@ -3118,7 +4167,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:11" ht="16.05" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="13"/>
@@ -3131,7 +4180,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:11" ht="16.05" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="13"/>
@@ -3144,10 +4193,10 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:11" ht="16.05" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" t="s" s="12">
+      <c r="C50" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="4"/>
@@ -3159,7 +4208,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:11" ht="16.05" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="13"/>
@@ -3172,10 +4221,10 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:11" ht="16.05" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" t="s" s="12">
+      <c r="C52" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D52" s="4"/>
@@ -3187,10 +4236,10 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:11" ht="16.05" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" t="s" s="12">
+      <c r="C53" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="4"/>
@@ -3202,10 +4251,10 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:11" ht="16.05" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" t="s" s="12">
+      <c r="C54" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="4"/>
@@ -3217,10 +4266,10 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:11" ht="16.05" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" t="s" s="12">
+      <c r="C55" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D55" s="4"/>
@@ -3232,10 +4281,10 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:11" ht="16.05" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" t="s" s="12">
+      <c r="C56" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="4"/>
@@ -3247,10 +4296,10 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:11" ht="16.05" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" t="s" s="9">
+      <c r="C57" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D57" s="4"/>
@@ -3262,10 +4311,10 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:11" ht="16.05" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" t="s" s="9">
+      <c r="C58" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D58" s="4"/>
@@ -3277,10 +4326,10 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:11" ht="16.05" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" t="s" s="9">
+      <c r="C59" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="4"/>
@@ -3292,10 +4341,10 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:11" ht="16.05" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" t="s" s="9">
+      <c r="C60" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D60" s="4"/>
@@ -3307,10 +4356,10 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:11" ht="16.05" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" t="s" s="9">
+      <c r="C61" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D61" s="4"/>
@@ -3322,10 +4371,10 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:11" ht="16.05" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" t="s" s="9">
+      <c r="C62" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D62" s="4"/>
@@ -3337,10 +4386,10 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:11" ht="16.05" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" t="s" s="9">
+      <c r="C63" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="4"/>
@@ -3352,7 +4401,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
+    <row r="64" spans="1:11" ht="16.05" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3365,7 +4414,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
+    <row r="65" spans="1:11" ht="16.05" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3378,10 +4427,10 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
+    <row r="66" spans="1:11" ht="16.05" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" t="s" s="9">
+      <c r="C66" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D66" s="4"/>
@@ -3393,10 +4442,10 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
+    <row r="67" spans="1:11" ht="16.05" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" t="s" s="9">
+      <c r="C67" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="4"/>
@@ -3408,10 +4457,10 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
+    <row r="68" spans="1:11" ht="16.05" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" t="s" s="9">
+      <c r="C68" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D68" s="4"/>
@@ -3423,10 +4472,10 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" spans="1:11" ht="16.05" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" t="s" s="9">
+      <c r="C69" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="4"/>
@@ -3438,7 +4487,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
+    <row r="70" spans="1:11" ht="16.05" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3451,10 +4500,10 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
+    <row r="71" spans="1:11" ht="16.05" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" t="s" s="9">
+      <c r="C71" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="4"/>
@@ -3466,7 +4515,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" spans="1:11" ht="16.05" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3479,10 +4528,10 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" ht="20" customHeight="1">
+    <row r="73" spans="1:11" ht="19.95" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" t="s" s="17">
+      <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D73" s="4"/>
@@ -3494,7 +4543,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" spans="1:11" ht="16.05" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3507,7 +4556,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
+    <row r="75" spans="1:11" ht="16.05" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3520,7 +4569,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
+    <row r="76" spans="1:11" ht="16.05" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3533,7 +4582,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
+    <row r="77" spans="1:11" ht="16.05" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3546,7 +4595,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" ht="16" customHeight="1">
+    <row r="78" spans="1:11" ht="16.05" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3559,10 +4608,10 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
+    <row r="79" spans="1:11" ht="16.05" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" t="s" s="9">
+      <c r="C79" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D79" s="4"/>
@@ -3574,7 +4623,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" ht="16" customHeight="1">
+    <row r="80" spans="1:11" ht="16.05" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3587,7 +4636,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
+    <row r="81" spans="1:11" ht="16.05" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3600,7 +4649,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" ht="16" customHeight="1">
+    <row r="82" spans="1:11" ht="16.05" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3613,10 +4662,10 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
+    <row r="83" spans="1:11" ht="16.05" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" t="s" s="9">
+      <c r="C83" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D83" s="4"/>
@@ -3628,10 +4677,10 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" ht="16" customHeight="1">
+    <row r="84" spans="1:11" ht="16.05" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" t="s" s="9">
+      <c r="C84" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D84" s="4"/>
@@ -3643,7 +4692,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" ht="16" customHeight="1">
+    <row r="85" spans="1:11" ht="16.05" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3656,15 +4705,15 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" ht="16" customHeight="1">
+    <row r="86" spans="1:11" ht="16.05" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" t="s" s="9">
+      <c r="C86" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" t="s" s="9">
+      <c r="F86" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G86" s="4"/>
@@ -3673,7 +4722,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" ht="16" customHeight="1">
+    <row r="87" spans="1:11" ht="16.05" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3686,7 +4735,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" ht="16" customHeight="1">
+    <row r="88" spans="1:11" ht="16.05" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3699,10 +4748,10 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" ht="16" customHeight="1">
+    <row r="89" spans="1:11" ht="16.05" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" t="s" s="9">
+      <c r="C89" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D89" s="4"/>
@@ -3714,10 +4763,10 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" ht="16" customHeight="1">
+    <row r="90" spans="1:11" ht="16.05" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" t="s" s="9">
+      <c r="C90" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D90" s="4"/>
@@ -3729,10 +4778,10 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" ht="16" customHeight="1">
+    <row r="91" spans="1:11" ht="16.05" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" t="s" s="9">
+      <c r="C91" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D91" s="4"/>
@@ -3744,10 +4793,10 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" ht="16" customHeight="1">
+    <row r="92" spans="1:11" ht="16.05" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" t="s" s="9">
+      <c r="C92" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D92" s="4"/>
@@ -3759,10 +4808,10 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" ht="16" customHeight="1">
+    <row r="93" spans="1:11" ht="16.05" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" t="s" s="9">
+      <c r="C93" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="4"/>
@@ -3774,10 +4823,10 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" ht="16" customHeight="1">
+    <row r="94" spans="1:11" ht="16.05" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" t="s" s="9">
+      <c r="C94" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D94" s="4"/>
@@ -3789,10 +4838,10 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
+    <row r="95" spans="1:11" ht="16.05" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" t="s" s="9">
+      <c r="C95" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D95" s="4"/>
@@ -3804,10 +4853,10 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
+    <row r="96" spans="1:11" ht="16.05" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" t="s" s="9">
+      <c r="C96" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D96" s="4"/>
@@ -3819,10 +4868,10 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" ht="16" customHeight="1">
+    <row r="97" spans="1:11" ht="16.05" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" t="s" s="9">
+      <c r="C97" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D97" s="4"/>
@@ -3834,7 +4883,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" ht="16" customHeight="1">
+    <row r="98" spans="1:11" ht="16.05" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3847,7 +4896,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" ht="16" customHeight="1">
+    <row r="99" spans="1:11" ht="16.05" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3860,10 +4909,10 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" ht="16" customHeight="1">
+    <row r="100" spans="1:11" ht="16.05" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" t="s" s="9">
+      <c r="C100" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D100" s="4"/>
@@ -3875,10 +4924,10 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" ht="16" customHeight="1">
+    <row r="101" spans="1:11" ht="16.05" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" t="s" s="9">
+      <c r="C101" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D101" s="4"/>
@@ -3890,10 +4939,10 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" ht="29" customHeight="1">
+    <row r="102" spans="1:11" ht="28.95" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" t="s" s="18">
+      <c r="C102" s="17" t="s">
         <v>113</v>
       </c>
       <c r="D102" s="4"/>
@@ -3905,7 +4954,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" ht="16" customHeight="1">
+    <row r="103" spans="1:11" ht="16.05" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3918,10 +4967,10 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" ht="16" customHeight="1">
+    <row r="104" spans="1:11" ht="16.05" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" t="s" s="9">
+      <c r="C104" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D104" s="4"/>
@@ -3933,7 +4982,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" ht="16" customHeight="1">
+    <row r="105" spans="1:11" ht="16.05" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3946,7 +4995,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" ht="16" customHeight="1">
+    <row r="106" spans="1:11" ht="16.05" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3959,8 +5008,8 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" ht="16" customHeight="1">
-      <c r="A107" t="s" s="9">
+    <row r="107" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A107" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B107" s="4"/>
@@ -3974,7 +5023,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" ht="16" customHeight="1">
+    <row r="108" spans="1:11" ht="16.05" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3987,7 +5036,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" ht="16" customHeight="1">
+    <row r="109" spans="1:11" ht="16.05" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4000,7 +5049,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" ht="16" customHeight="1">
+    <row r="110" spans="1:11" ht="16.05" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4013,7 +5062,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" ht="16" customHeight="1">
+    <row r="111" spans="1:11" ht="16.05" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4026,7 +5075,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" ht="16" customHeight="1">
+    <row r="112" spans="1:11" ht="16.05" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4039,7 +5088,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" ht="16" customHeight="1">
+    <row r="113" spans="1:11" ht="16.05" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4052,7 +5101,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" ht="16" customHeight="1">
+    <row r="114" spans="1:11" ht="16.05" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4065,7 +5114,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" ht="16" customHeight="1">
+    <row r="115" spans="1:11" ht="16.05" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4078,7 +5127,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" ht="16" customHeight="1">
+    <row r="116" spans="1:11" ht="16.05" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4091,7 +5140,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" ht="16" customHeight="1">
+    <row r="117" spans="1:11" ht="16.05" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4104,7 +5153,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" ht="16" customHeight="1">
+    <row r="118" spans="1:11" ht="16.05" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4117,8 +5166,8 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" ht="16" customHeight="1">
-      <c r="A119" t="s" s="9">
+    <row r="119" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A119" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B119" s="4"/>
@@ -4132,7 +5181,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" ht="16" customHeight="1">
+    <row r="120" spans="1:11" ht="16.05" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4145,7 +5194,7 @@
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
     </row>
-    <row r="121" ht="16" customHeight="1">
+    <row r="121" spans="1:11" ht="16.05" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4158,8 +5207,8 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" ht="16" customHeight="1">
-      <c r="A122" t="s" s="9">
+    <row r="122" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A122" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B122" s="4"/>
@@ -4173,7 +5222,7 @@
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
     </row>
-    <row r="123" ht="16" customHeight="1">
+    <row r="123" spans="1:11" ht="16.05" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4186,8 +5235,8 @@
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" ht="16" customHeight="1">
-      <c r="A124" t="s" s="9">
+    <row r="124" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A124" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B124" s="4"/>
@@ -4201,8 +5250,8 @@
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
     </row>
-    <row r="125" ht="16" customHeight="1">
-      <c r="A125" t="s" s="9">
+    <row r="125" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A125" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B125" s="4"/>
@@ -4216,7 +5265,7 @@
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" ht="16" customHeight="1">
+    <row r="126" spans="1:11" ht="16.05" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4229,7 +5278,7 @@
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" ht="16" customHeight="1">
+    <row r="127" spans="1:11" ht="16.05" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4242,12 +5291,12 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" ht="16" customHeight="1">
-      <c r="A128" t="s" s="9">
+    <row r="128" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A128" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B128" s="4"/>
-      <c r="C128" t="s" s="9">
+      <c r="C128" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D128" s="4"/>
@@ -4259,12 +5308,12 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" ht="49" customHeight="1">
-      <c r="A129" t="s" s="9">
+    <row r="129" spans="1:11" ht="49.05" customHeight="1">
+      <c r="A129" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B129" s="4"/>
-      <c r="C129" t="s" s="20">
+      <c r="C129" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D129" s="4"/>
@@ -4276,7 +5325,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" ht="16" customHeight="1">
+    <row r="130" spans="1:11" ht="16.05" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4289,10 +5338,10 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" ht="16" customHeight="1">
+    <row r="131" spans="1:11" ht="16.05" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" t="s" s="9">
+      <c r="C131" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D131" s="4"/>
@@ -4304,10 +5353,10 @@
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" ht="16" customHeight="1">
+    <row r="132" spans="1:11" ht="16.05" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" t="s" s="9">
+      <c r="C132" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D132" s="4"/>
@@ -4319,10 +5368,10 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" ht="16" customHeight="1">
+    <row r="133" spans="1:11" ht="16.05" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" t="s" s="9">
+      <c r="C133" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D133" s="4"/>
@@ -4334,7 +5383,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" ht="16" customHeight="1">
+    <row r="134" spans="1:11" ht="16.05" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4347,12 +5396,12 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" ht="16" customHeight="1">
+    <row r="135" spans="1:11" ht="16.05" customHeight="1">
       <c r="A135" s="4"/>
-      <c r="B135" t="s" s="9">
+      <c r="B135" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C135" t="s" s="9">
+      <c r="C135" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D135" s="4"/>
@@ -4364,12 +5413,12 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" ht="16" customHeight="1">
+    <row r="136" spans="1:11" ht="16.05" customHeight="1">
       <c r="A136" s="4"/>
-      <c r="B136" t="s" s="9">
+      <c r="B136" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C136" t="s" s="9">
+      <c r="C136" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D136" s="4"/>
@@ -4381,10 +5430,10 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" ht="16" customHeight="1">
+    <row r="137" spans="1:11" ht="16.05" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" t="s" s="9">
+      <c r="C137" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="4"/>
@@ -4396,10 +5445,10 @@
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" ht="16" customHeight="1">
+    <row r="138" spans="1:11" ht="16.05" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" t="s" s="9">
+      <c r="C138" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D138" s="4"/>
@@ -4411,10 +5460,10 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" ht="16" customHeight="1">
+    <row r="139" spans="1:11" ht="16.05" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" t="s" s="9">
+      <c r="C139" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D139" s="4"/>
@@ -4426,7 +5475,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" ht="16" customHeight="1">
+    <row r="140" spans="1:11" ht="16.05" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4439,7 +5488,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" ht="16" customHeight="1">
+    <row r="141" spans="1:11" ht="16.05" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4452,10 +5501,10 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" ht="16" customHeight="1">
+    <row r="142" spans="1:11" ht="16.05" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" t="s" s="9">
+      <c r="C142" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D142" s="4"/>
@@ -4467,10 +5516,10 @@
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
     </row>
-    <row r="143" ht="16" customHeight="1">
+    <row r="143" spans="1:11" ht="16.05" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" t="s" s="9">
+      <c r="C143" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D143" s="4"/>
@@ -4482,7 +5531,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" ht="16" customHeight="1">
+    <row r="144" spans="1:11" ht="16.05" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4495,10 +5544,10 @@
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" ht="16" customHeight="1">
+    <row r="145" spans="1:11" ht="16.05" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" t="s" s="9">
+      <c r="C145" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D145" s="4"/>
@@ -4510,10 +5559,10 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" ht="16" customHeight="1">
+    <row r="146" spans="1:11" ht="16.05" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" t="s" s="9">
+      <c r="C146" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D146" s="4"/>
@@ -4525,10 +5574,10 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" ht="16" customHeight="1">
+    <row r="147" spans="1:11" ht="16.05" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" t="s" s="9">
+      <c r="C147" s="9" t="s">
         <v>137</v>
       </c>
       <c r="D147" s="4"/>
@@ -4540,7 +5589,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" ht="16" customHeight="1">
+    <row r="148" spans="1:11" ht="16.05" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4553,7 +5602,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" ht="16" customHeight="1">
+    <row r="149" spans="1:11" ht="16.05" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4566,7 +5615,7 @@
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" ht="16" customHeight="1">
+    <row r="150" spans="1:11" ht="16.05" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4579,7 +5628,7 @@
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" ht="16" customHeight="1">
+    <row r="151" spans="1:11" ht="16.05" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4592,10 +5641,10 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" ht="16" customHeight="1">
+    <row r="152" spans="1:11" ht="16.05" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" t="s" s="9">
+      <c r="C152" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D152" s="4"/>
@@ -4607,7 +5656,7 @@
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" ht="16" customHeight="1">
+    <row r="153" spans="1:11" ht="16.05" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4620,7 +5669,7 @@
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" ht="16" customHeight="1">
+    <row r="154" spans="1:11" ht="16.05" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4633,7 +5682,7 @@
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" ht="16" customHeight="1">
+    <row r="155" spans="1:11" ht="16.05" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4646,7 +5695,7 @@
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" ht="16" customHeight="1">
+    <row r="156" spans="1:11" ht="16.05" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4659,12 +5708,12 @@
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" ht="16" customHeight="1">
+    <row r="157" spans="1:11" ht="16.05" customHeight="1">
       <c r="A157" s="4"/>
-      <c r="B157" t="s" s="9">
+      <c r="B157" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C157" t="s" s="9">
+      <c r="C157" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D157" s="4"/>
@@ -4676,10 +5725,10 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" ht="16" customHeight="1">
+    <row r="158" spans="1:11" ht="16.05" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" t="s" s="9">
+      <c r="C158" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D158" s="4"/>
@@ -4691,9 +5740,9 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" ht="16" customHeight="1">
+    <row r="159" spans="1:11" ht="16.05" customHeight="1">
       <c r="A159" s="4"/>
-      <c r="B159" t="s" s="9">
+      <c r="B159" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C159" s="4"/>
@@ -4706,9 +5755,9 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" ht="16" customHeight="1">
+    <row r="160" spans="1:11" ht="16.05" customHeight="1">
       <c r="A160" s="4"/>
-      <c r="B160" t="s" s="9">
+      <c r="B160" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C160" s="4"/>
@@ -4721,9 +5770,9 @@
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" ht="39.8" customHeight="1">
+    <row r="161" spans="1:11" ht="39.75" customHeight="1">
       <c r="A161" s="4"/>
-      <c r="B161" t="s" s="22">
+      <c r="B161" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C161" s="4"/>
@@ -4736,9 +5785,9 @@
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" ht="16" customHeight="1">
+    <row r="162" spans="1:11" ht="16.05" customHeight="1">
       <c r="A162" s="4"/>
-      <c r="B162" t="s" s="9">
+      <c r="B162" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C162" s="4"/>
@@ -4751,12 +5800,12 @@
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" ht="29" customHeight="1">
+    <row r="163" spans="1:11" ht="28.95" customHeight="1">
       <c r="A163" s="4"/>
-      <c r="B163" t="s" s="18">
+      <c r="B163" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C163" s="23">
+      <c r="C163" s="20">
         <v>0.82</v>
       </c>
       <c r="D163" s="4"/>
@@ -4768,9 +5817,9 @@
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" ht="16" customHeight="1">
+    <row r="164" spans="1:11" ht="16.05" customHeight="1">
       <c r="A164" s="4"/>
-      <c r="B164" t="s" s="9">
+      <c r="B164" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C164" s="4"/>
@@ -4783,9 +5832,9 @@
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" ht="16" customHeight="1">
+    <row r="165" spans="1:11" ht="16.05" customHeight="1">
       <c r="A165" s="4"/>
-      <c r="B165" t="s" s="9">
+      <c r="B165" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C165" s="4"/>
@@ -4798,7 +5847,7 @@
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" ht="16" customHeight="1">
+    <row r="166" spans="1:11" ht="16.05" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4811,9 +5860,9 @@
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" ht="16" customHeight="1">
+    <row r="167" spans="1:11" ht="16.05" customHeight="1">
       <c r="A167" s="4"/>
-      <c r="B167" t="s" s="9">
+      <c r="B167" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C167" s="4"/>
@@ -4826,7 +5875,7 @@
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" ht="16" customHeight="1">
+    <row r="168" spans="1:11" ht="16.05" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4839,7 +5888,7 @@
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" ht="16" customHeight="1">
+    <row r="169" spans="1:11" ht="16.05" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4852,7 +5901,7 @@
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" ht="16" customHeight="1">
+    <row r="170" spans="1:11" ht="16.05" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4865,12 +5914,12 @@
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" ht="16" customHeight="1">
-      <c r="A171" t="s" s="9">
+    <row r="171" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A171" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B171" s="4"/>
-      <c r="C171" t="s" s="9">
+      <c r="C171" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D171" s="4"/>
@@ -4882,10 +5931,10 @@
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" ht="16" customHeight="1">
+    <row r="172" spans="1:11" ht="16.05" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" t="s" s="9">
+      <c r="C172" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D172" s="4"/>
@@ -4897,7 +5946,7 @@
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
     </row>
-    <row r="173" ht="16" customHeight="1">
+    <row r="173" spans="1:11" ht="16.05" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4910,7 +5959,7 @@
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" ht="16" customHeight="1">
+    <row r="174" spans="1:11" ht="16.05" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4923,7 +5972,7 @@
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
     </row>
-    <row r="175" ht="16" customHeight="1">
+    <row r="175" spans="1:11" ht="16.05" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4936,7 +5985,7 @@
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" ht="16" customHeight="1">
+    <row r="176" spans="1:11" ht="16.05" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4949,8 +5998,8 @@
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" ht="16" customHeight="1">
-      <c r="A177" t="s" s="9">
+    <row r="177" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A177" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B177" s="4"/>
@@ -4964,12 +6013,12 @@
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" ht="16" customHeight="1">
+    <row r="178" spans="1:11" ht="16.05" customHeight="1">
       <c r="A178" s="4"/>
-      <c r="B178" t="s" s="9">
+      <c r="B178" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C178" t="s" s="9">
+      <c r="C178" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D178" s="4"/>
@@ -4981,10 +6030,10 @@
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" ht="16" customHeight="1">
+    <row r="179" spans="1:11" ht="16.05" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" t="s" s="9">
+      <c r="C179" s="9" t="s">
         <v>156</v>
       </c>
       <c r="D179" s="4"/>
@@ -4996,10 +6045,10 @@
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" ht="20" customHeight="1">
+    <row r="180" spans="1:11" ht="19.95" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" t="s" s="24">
+      <c r="C180" s="21" t="s">
         <v>157</v>
       </c>
       <c r="D180" s="4"/>
@@ -5011,10 +6060,10 @@
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" ht="16" customHeight="1">
+    <row r="181" spans="1:11" ht="16.05" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" t="s" s="9">
+      <c r="C181" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D181" s="4"/>
@@ -5026,10 +6075,10 @@
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" ht="20" customHeight="1">
+    <row r="182" spans="1:11" ht="19.95" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" t="s" s="24">
+      <c r="C182" s="21" t="s">
         <v>159</v>
       </c>
       <c r="D182" s="4"/>
@@ -5041,12 +6090,12 @@
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" ht="20" customHeight="1">
-      <c r="A183" t="s" s="9">
+    <row r="183" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A183" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B183" s="4"/>
-      <c r="C183" t="s" s="24">
+      <c r="C183" s="21" t="s">
         <v>161</v>
       </c>
       <c r="D183" s="4"/>
@@ -5058,10 +6107,10 @@
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" ht="16" customHeight="1">
+    <row r="184" spans="1:11" ht="16.05" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" t="s" s="9">
+      <c r="C184" s="9" t="s">
         <v>162</v>
       </c>
       <c r="D184" s="4"/>
@@ -5073,15 +6122,15 @@
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" ht="16" customHeight="1">
+    <row r="185" spans="1:11" ht="16.05" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" t="s" s="9">
+      <c r="C185" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="F185" t="s" s="9">
+      <c r="F185" s="9" t="s">
         <v>163</v>
       </c>
       <c r="G185" s="4"/>
@@ -5090,7 +6139,7 @@
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
-    <row r="186" ht="16" customHeight="1">
+    <row r="186" spans="1:11" ht="16.05" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5103,7 +6152,7 @@
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" ht="16" customHeight="1">
+    <row r="187" spans="1:11" ht="16.05" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -5116,10 +6165,10 @@
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" ht="16" customHeight="1">
+    <row r="188" spans="1:11" ht="16.05" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" t="s" s="9">
+      <c r="C188" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D188" s="4"/>
@@ -5131,7 +6180,7 @@
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" ht="16" customHeight="1">
+    <row r="189" spans="1:11" ht="16.05" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -5144,10 +6193,10 @@
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" ht="20" customHeight="1">
+    <row r="190" spans="1:11" ht="19.95" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" t="s" s="24">
+      <c r="C190" s="21" t="s">
         <v>165</v>
       </c>
       <c r="D190" s="4"/>
@@ -5159,7 +6208,7 @@
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" ht="16" customHeight="1">
+    <row r="191" spans="1:11" ht="16.05" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -5172,14 +6221,14 @@
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" ht="16" customHeight="1">
+    <row r="192" spans="1:11" ht="16.05" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" t="s" s="9">
+      <c r="C192" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D192" s="4"/>
-      <c r="E192" t="s" s="9">
+      <c r="E192" s="9" t="s">
         <v>166</v>
       </c>
       <c r="F192" s="4"/>
@@ -5189,9 +6238,9 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" ht="16" customHeight="1">
+    <row r="193" spans="1:11" ht="16.05" customHeight="1">
       <c r="A193" s="4"/>
-      <c r="B193" t="s" s="9">
+      <c r="B193" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C193" s="4"/>
@@ -5204,9 +6253,9 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" ht="16" customHeight="1">
+    <row r="194" spans="1:11" ht="16.05" customHeight="1">
       <c r="A194" s="4"/>
-      <c r="B194" t="s" s="9">
+      <c r="B194" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C194" s="4"/>
@@ -5219,10 +6268,10 @@
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" ht="16" customHeight="1">
+    <row r="195" spans="1:11" ht="16.05" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" t="s" s="9">
+      <c r="C195" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D195" s="4"/>
@@ -5234,10 +6283,10 @@
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" ht="16" customHeight="1">
+    <row r="196" spans="1:11" ht="16.05" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" t="s" s="9">
+      <c r="C196" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D196" s="4"/>
@@ -5249,9 +6298,9 @@
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" ht="20.8" customHeight="1">
+    <row r="197" spans="1:11" ht="20.85" customHeight="1">
       <c r="A197" s="4"/>
-      <c r="B197" s="25">
+      <c r="B197" s="22">
         <v>0.88</v>
       </c>
       <c r="C197" s="4"/>
@@ -5264,7 +6313,7 @@
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
     </row>
-    <row r="198" ht="16" customHeight="1">
+    <row r="198" spans="1:11" ht="16.05" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5277,7 +6326,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" ht="16" customHeight="1">
+    <row r="199" spans="1:11" ht="16.05" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5290,7 +6339,7 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" ht="16" customHeight="1">
+    <row r="200" spans="1:11" ht="16.05" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -5303,7 +6352,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" ht="16" customHeight="1">
+    <row r="201" spans="1:11" ht="16.05" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -5316,7 +6365,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" ht="16" customHeight="1">
+    <row r="202" spans="1:11" ht="16.05" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -5329,7 +6378,7 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" ht="16" customHeight="1">
+    <row r="203" spans="1:11" ht="16.05" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -5342,12 +6391,12 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" ht="20" customHeight="1">
-      <c r="A204" t="s" s="9">
+    <row r="204" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A204" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B204" s="4"/>
-      <c r="C204" t="s" s="24">
+      <c r="C204" s="21" t="s">
         <v>172</v>
       </c>
       <c r="D204" s="4"/>
@@ -5359,12 +6408,12 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" ht="20" customHeight="1">
+    <row r="205" spans="1:11" ht="19.95" customHeight="1">
       <c r="A205" s="4"/>
-      <c r="B205" t="s" s="9">
+      <c r="B205" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C205" t="s" s="24">
+      <c r="C205" s="21" t="s">
         <v>174</v>
       </c>
       <c r="D205" s="4"/>
@@ -5376,10 +6425,10 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" ht="20" customHeight="1">
+    <row r="206" spans="1:11" ht="19.95" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" t="s" s="24">
+      <c r="C206" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D206" s="4"/>
@@ -5391,10 +6440,10 @@
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" ht="20" customHeight="1">
+    <row r="207" spans="1:11" ht="19.95" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
-      <c r="C207" t="s" s="24">
+      <c r="C207" s="21" t="s">
         <v>176</v>
       </c>
       <c r="D207" s="4"/>
@@ -5406,7 +6455,7 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" ht="16" customHeight="1">
+    <row r="208" spans="1:11" ht="16.05" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -5419,11 +6468,11 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" ht="20" customHeight="1">
-      <c r="A209" t="s" s="9">
+    <row r="209" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A209" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B209" t="s" s="26">
+      <c r="B209" s="23" t="s">
         <v>178</v>
       </c>
       <c r="C209" s="4"/>
@@ -5436,7 +6485,7 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" ht="16" customHeight="1">
+    <row r="210" spans="1:11" ht="16.05" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -5449,9 +6498,9 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" ht="20" customHeight="1">
+    <row r="211" spans="1:11" ht="19.95" customHeight="1">
       <c r="A211" s="4"/>
-      <c r="B211" t="s" s="24">
+      <c r="B211" s="21" t="s">
         <v>179</v>
       </c>
       <c r="C211" s="4"/>
@@ -5464,9 +6513,9 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" ht="20" customHeight="1">
+    <row r="212" spans="1:11" ht="19.95" customHeight="1">
       <c r="A212" s="4"/>
-      <c r="B212" t="s" s="24">
+      <c r="B212" s="21" t="s">
         <v>180</v>
       </c>
       <c r="C212" s="4"/>
@@ -5479,9 +6528,9 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" ht="20" customHeight="1">
+    <row r="213" spans="1:11" ht="19.95" customHeight="1">
       <c r="A213" s="4"/>
-      <c r="B213" s="27"/>
+      <c r="B213" s="24"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -5492,9 +6541,9 @@
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" ht="20" customHeight="1">
+    <row r="214" spans="1:11" ht="19.95" customHeight="1">
       <c r="A214" s="4"/>
-      <c r="B214" s="27"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -5505,9 +6554,9 @@
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" ht="20" customHeight="1">
+    <row r="215" spans="1:11" ht="19.95" customHeight="1">
       <c r="A215" s="4"/>
-      <c r="B215" t="s" s="24">
+      <c r="B215" s="21" t="s">
         <v>181</v>
       </c>
       <c r="C215" s="4"/>
@@ -5520,9 +6569,9 @@
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" ht="20" customHeight="1">
+    <row r="216" spans="1:11" ht="19.95" customHeight="1">
       <c r="A216" s="4"/>
-      <c r="B216" t="s" s="26">
+      <c r="B216" s="23" t="s">
         <v>182</v>
       </c>
       <c r="C216" s="4"/>
@@ -5535,9 +6584,9 @@
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" ht="20" customHeight="1">
+    <row r="217" spans="1:11" ht="19.95" customHeight="1">
       <c r="A217" s="4"/>
-      <c r="B217" t="s" s="24">
+      <c r="B217" s="21" t="s">
         <v>183</v>
       </c>
       <c r="C217" s="4"/>
@@ -5550,9 +6599,9 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" ht="20" customHeight="1">
+    <row r="218" spans="1:11" ht="19.95" customHeight="1">
       <c r="A218" s="4"/>
-      <c r="B218" s="27"/>
+      <c r="B218" s="24"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -5563,9 +6612,9 @@
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" ht="20" customHeight="1">
+    <row r="219" spans="1:11" ht="19.95" customHeight="1">
       <c r="A219" s="4"/>
-      <c r="B219" s="27"/>
+      <c r="B219" s="24"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -5576,11 +6625,11 @@
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" ht="20" customHeight="1">
-      <c r="A220" t="s" s="9">
+    <row r="220" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A220" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B220" t="s" s="24">
+      <c r="B220" s="21" t="s">
         <v>185</v>
       </c>
       <c r="C220" s="4"/>
@@ -5593,9 +6642,9 @@
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" ht="20" customHeight="1">
+    <row r="221" spans="1:11" ht="19.95" customHeight="1">
       <c r="A221" s="4"/>
-      <c r="B221" s="27"/>
+      <c r="B221" s="24"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -5606,9 +6655,9 @@
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" ht="20" customHeight="1">
+    <row r="222" spans="1:11" ht="19.95" customHeight="1">
       <c r="A222" s="4"/>
-      <c r="B222" t="s" s="24">
+      <c r="B222" s="21" t="s">
         <v>186</v>
       </c>
       <c r="C222" s="4"/>
@@ -5621,9 +6670,9 @@
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" ht="20" customHeight="1">
+    <row r="223" spans="1:11" ht="19.95" customHeight="1">
       <c r="A223" s="4"/>
-      <c r="B223" s="27"/>
+      <c r="B223" s="24"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -5634,9 +6683,9 @@
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" ht="20" customHeight="1">
+    <row r="224" spans="1:11" ht="19.95" customHeight="1">
       <c r="A224" s="4"/>
-      <c r="B224" t="s" s="24">
+      <c r="B224" s="21" t="s">
         <v>187</v>
       </c>
       <c r="C224" s="4"/>
@@ -5649,12 +6698,12 @@
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
     </row>
-    <row r="225" ht="20" customHeight="1">
+    <row r="225" spans="1:11" ht="19.95" customHeight="1">
       <c r="A225" s="4"/>
-      <c r="B225" t="s" s="24">
+      <c r="B225" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C225" t="s" s="9">
+      <c r="C225" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D225" s="4"/>
@@ -5666,9 +6715,9 @@
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" ht="20" customHeight="1">
+    <row r="226" spans="1:11" ht="19.95" customHeight="1">
       <c r="A226" s="4"/>
-      <c r="B226" t="s" s="24">
+      <c r="B226" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C226" s="4"/>
@@ -5681,9 +6730,9 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" ht="20" customHeight="1">
+    <row r="227" spans="1:11" ht="19.95" customHeight="1">
       <c r="A227" s="4"/>
-      <c r="B227" s="27"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -5694,9 +6743,9 @@
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
     </row>
-    <row r="228" ht="20" customHeight="1">
+    <row r="228" spans="1:11" ht="19.95" customHeight="1">
       <c r="A228" s="4"/>
-      <c r="B228" s="27"/>
+      <c r="B228" s="24"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -5707,9 +6756,9 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" ht="20" customHeight="1">
+    <row r="229" spans="1:11" ht="19.95" customHeight="1">
       <c r="A229" s="4"/>
-      <c r="B229" t="s" s="24">
+      <c r="B229" s="21" t="s">
         <v>191</v>
       </c>
       <c r="C229" s="4"/>
@@ -5722,9 +6771,9 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" ht="20" customHeight="1">
+    <row r="230" spans="1:11" ht="19.95" customHeight="1">
       <c r="A230" s="4"/>
-      <c r="B230" s="27"/>
+      <c r="B230" s="24"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -5735,9 +6784,9 @@
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" ht="20" customHeight="1">
+    <row r="231" spans="1:11" ht="19.95" customHeight="1">
       <c r="A231" s="4"/>
-      <c r="B231" t="s" s="24">
+      <c r="B231" s="21" t="s">
         <v>192</v>
       </c>
       <c r="C231" s="4"/>
@@ -5750,9 +6799,9 @@
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" ht="20" customHeight="1">
+    <row r="232" spans="1:11" ht="19.95" customHeight="1">
       <c r="A232" s="4"/>
-      <c r="B232" s="27"/>
+      <c r="B232" s="24"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -5763,9 +6812,9 @@
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" ht="37" customHeight="1">
+    <row r="233" spans="1:11" ht="37.049999999999997" customHeight="1">
       <c r="A233" s="4"/>
-      <c r="B233" t="s" s="28">
+      <c r="B233" s="25" t="s">
         <v>193</v>
       </c>
       <c r="C233" s="4"/>
@@ -5778,9 +6827,9 @@
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" ht="20" customHeight="1">
+    <row r="234" spans="1:11" ht="19.95" customHeight="1">
       <c r="A234" s="4"/>
-      <c r="B234" t="s" s="24">
+      <c r="B234" s="21" t="s">
         <v>194</v>
       </c>
       <c r="C234" s="4"/>
@@ -5793,9 +6842,9 @@
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
     </row>
-    <row r="235" ht="20" customHeight="1">
+    <row r="235" spans="1:11" ht="19.95" customHeight="1">
       <c r="A235" s="4"/>
-      <c r="B235" s="27"/>
+      <c r="B235" s="24"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -5806,9 +6855,9 @@
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" ht="20" customHeight="1">
+    <row r="236" spans="1:11" ht="19.95" customHeight="1">
       <c r="A236" s="4"/>
-      <c r="B236" s="27"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -5819,9 +6868,9 @@
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
     </row>
-    <row r="237" ht="20" customHeight="1">
+    <row r="237" spans="1:11" ht="19.95" customHeight="1">
       <c r="A237" s="4"/>
-      <c r="B237" t="s" s="24">
+      <c r="B237" s="21" t="s">
         <v>195</v>
       </c>
       <c r="C237" s="4"/>
@@ -5834,9 +6883,9 @@
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
     </row>
-    <row r="238" ht="20" customHeight="1">
+    <row r="238" spans="1:11" ht="19.95" customHeight="1">
       <c r="A238" s="4"/>
-      <c r="B238" s="27"/>
+      <c r="B238" s="24"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -5847,9 +6896,9 @@
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
     </row>
-    <row r="239" ht="20" customHeight="1">
+    <row r="239" spans="1:11" ht="19.95" customHeight="1">
       <c r="A239" s="4"/>
-      <c r="B239" t="s" s="24">
+      <c r="B239" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C239" s="4"/>
@@ -5862,9 +6911,9 @@
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
     </row>
-    <row r="240" ht="37" customHeight="1">
+    <row r="240" spans="1:11" ht="37.049999999999997" customHeight="1">
       <c r="A240" s="4"/>
-      <c r="B240" t="s" s="28">
+      <c r="B240" s="25" t="s">
         <v>197</v>
       </c>
       <c r="C240" s="4"/>
@@ -5877,9 +6926,9 @@
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" ht="20" customHeight="1">
+    <row r="241" spans="1:11" ht="19.95" customHeight="1">
       <c r="A241" s="4"/>
-      <c r="B241" s="27"/>
+      <c r="B241" s="24"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -5890,9 +6939,9 @@
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" ht="20" customHeight="1">
+    <row r="242" spans="1:11" ht="19.95" customHeight="1">
       <c r="A242" s="4"/>
-      <c r="B242" t="s" s="24">
+      <c r="B242" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C242" s="4"/>
@@ -5905,9 +6954,9 @@
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" ht="20" customHeight="1">
+    <row r="243" spans="1:11" ht="19.95" customHeight="1">
       <c r="A243" s="4"/>
-      <c r="B243" s="27"/>
+      <c r="B243" s="24"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -5918,9 +6967,9 @@
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
     </row>
-    <row r="244" ht="20" customHeight="1">
+    <row r="244" spans="1:11" ht="19.95" customHeight="1">
       <c r="A244" s="4"/>
-      <c r="B244" s="27"/>
+      <c r="B244" s="24"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -5931,9 +6980,9 @@
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
     </row>
-    <row r="245" ht="20" customHeight="1">
+    <row r="245" spans="1:11" ht="19.95" customHeight="1">
       <c r="A245" s="4"/>
-      <c r="B245" s="27"/>
+      <c r="B245" s="24"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -5944,9 +6993,9 @@
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
     </row>
-    <row r="246" ht="20" customHeight="1">
+    <row r="246" spans="1:11" ht="19.95" customHeight="1">
       <c r="A246" s="4"/>
-      <c r="B246" s="27"/>
+      <c r="B246" s="24"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -5957,11 +7006,11 @@
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
     </row>
-    <row r="247" ht="20" customHeight="1">
-      <c r="A247" t="s" s="9">
+    <row r="247" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A247" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B247" s="27"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -5972,11 +7021,11 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
     </row>
-    <row r="248" ht="20" customHeight="1">
-      <c r="A248" t="s" s="9">
+    <row r="248" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A248" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B248" s="27"/>
+      <c r="B248" s="24"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -5987,9 +7036,9 @@
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
     </row>
-    <row r="249" ht="20" customHeight="1">
+    <row r="249" spans="1:11" ht="19.95" customHeight="1">
       <c r="A249" s="4"/>
-      <c r="B249" s="27"/>
+      <c r="B249" s="24"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -6000,9 +7049,9 @@
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
     </row>
-    <row r="250" ht="20" customHeight="1">
+    <row r="250" spans="1:11" ht="19.95" customHeight="1">
       <c r="A250" s="4"/>
-      <c r="B250" s="27"/>
+      <c r="B250" s="24"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -6013,9 +7062,9 @@
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
     </row>
-    <row r="251" ht="20" customHeight="1">
+    <row r="251" spans="1:11" ht="19.95" customHeight="1">
       <c r="A251" s="4"/>
-      <c r="B251" s="27"/>
+      <c r="B251" s="24"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -6026,9 +7075,9 @@
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
     </row>
-    <row r="252" ht="20" customHeight="1">
+    <row r="252" spans="1:11" ht="19.95" customHeight="1">
       <c r="A252" s="4"/>
-      <c r="B252" s="27"/>
+      <c r="B252" s="24"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -6039,9 +7088,9 @@
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
     </row>
-    <row r="253" ht="20" customHeight="1">
+    <row r="253" spans="1:11" ht="19.95" customHeight="1">
       <c r="A253" s="4"/>
-      <c r="B253" s="27"/>
+      <c r="B253" s="24"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -6052,11 +7101,11 @@
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
     </row>
-    <row r="254" ht="20" customHeight="1">
-      <c r="A254" s="23">
+    <row r="254" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A254" s="20">
         <v>7.29</v>
       </c>
-      <c r="B254" t="s" s="24">
+      <c r="B254" s="21" t="s">
         <v>201</v>
       </c>
       <c r="C254" s="4"/>
@@ -6069,9 +7118,9 @@
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
     </row>
-    <row r="255" ht="20" customHeight="1">
+    <row r="255" spans="1:11" ht="19.95" customHeight="1">
       <c r="A255" s="4"/>
-      <c r="B255" t="s" s="24">
+      <c r="B255" s="21" t="s">
         <v>202</v>
       </c>
       <c r="C255" s="4"/>
@@ -6084,9 +7133,9 @@
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
     </row>
-    <row r="256" ht="20" customHeight="1">
+    <row r="256" spans="1:11" ht="19.95" customHeight="1">
       <c r="A256" s="4"/>
-      <c r="B256" t="s" s="24">
+      <c r="B256" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C256" s="4"/>
@@ -6099,9 +7148,9 @@
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
     </row>
-    <row r="257" ht="20" customHeight="1">
+    <row r="257" spans="1:11" ht="19.95" customHeight="1">
       <c r="A257" s="4"/>
-      <c r="B257" s="27"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -6112,9 +7161,11 @@
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
     </row>
-    <row r="258" ht="20" customHeight="1">
-      <c r="A258" s="4"/>
-      <c r="B258" s="27"/>
+    <row r="258" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A258" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B258" s="24"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -6125,10 +7176,14 @@
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
     </row>
-    <row r="259" ht="20" customHeight="1">
-      <c r="A259" s="4"/>
-      <c r="B259" s="27"/>
-      <c r="C259" s="4"/>
+    <row r="259" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A259" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B259" s="24"/>
+      <c r="C259" s="32" t="s">
+        <v>213</v>
+      </c>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -6138,10 +7193,12 @@
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
     </row>
-    <row r="260" ht="20" customHeight="1">
+    <row r="260" spans="1:11" ht="19.95" customHeight="1">
       <c r="A260" s="4"/>
-      <c r="B260" s="27"/>
-      <c r="C260" s="4"/>
+      <c r="B260" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C260" s="28"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -6151,10 +7208,12 @@
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
     </row>
-    <row r="261" ht="20" customHeight="1">
+    <row r="261" spans="1:11" ht="33" customHeight="1">
       <c r="A261" s="4"/>
-      <c r="B261" s="27"/>
-      <c r="C261" s="4"/>
+      <c r="B261" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C261" s="26"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -6164,9 +7223,10 @@
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
     </row>
-    <row r="262" ht="20" customHeight="1">
-      <c r="A262" s="4"/>
-      <c r="B262" s="27"/>
+    <row r="262" spans="1:11" ht="19.95" customHeight="1">
+      <c r="B262" s="31" t="s">
+        <v>207</v>
+      </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -6177,26 +7237,400 @@
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
     </row>
+    <row r="263" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A263" s="26"/>
+      <c r="B263" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A264" s="31"/>
+      <c r="B264" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A265" s="31"/>
+      <c r="B265" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A266" s="35"/>
+      <c r="B266" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A267" s="35"/>
+      <c r="B267" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A268" s="39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="B269" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="B270" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A271" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A272" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B272" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="A277" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B278" s="36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B279" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B280" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B281" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B282" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B283" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B284" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B285" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B286" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C286" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B287" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C287" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="B288" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="B289" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="B290" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A291" s="41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="B292" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="B293" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A296" s="41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A297" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A298" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A299" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C299" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D299" s="46"/>
+      <c r="E299" s="46"/>
+      <c r="F299" s="46"/>
+    </row>
+    <row r="300" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A300" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A301" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A302" s="35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A303" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A304" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A305" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B305" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="B306" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="A307" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="A308" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="A309" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="A311" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="A318" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="A319" s="49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="17.399999999999999" customHeight="1">
+      <c r="A320" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A321" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A322" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A323" s="35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A325" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A326" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A327" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A329" s="41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="96.6" customHeight="1">
+      <c r="A330" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A332" s="41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A333" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A334" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A337" s="41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A338" s="51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A340" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A341" s="51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A342" s="51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A343" s="51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A344" s="51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A345" s="51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A346" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A347" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="149.4" customHeight="1">
+      <c r="A348" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1" location="" tooltip="" display="https://www.kaggle.com/code/zurainzeeshan/credit-score-analysis"/>
-    <hyperlink ref="A33" r:id="rId2" location="" tooltip="" display="https://www.kaggle.com/code/minhhn313/credit-score-classification-votingclassifier81"/>
-    <hyperlink ref="A36" r:id="rId3" location="" tooltip="" display="https://www.kaggle.com/code/samarchhetri/credit-score-classification"/>
-    <hyperlink ref="A47" r:id="rId4" location="" tooltip="" display="https://www.kaggle.com/code/vaibhavkumbhar/credit-score-classification-nn"/>
-    <hyperlink ref="A107" r:id="rId5" location="" tooltip="" display="https://www.kaggle.com/code/vaibhavkumbhar/credit-score-classification-nn"/>
-    <hyperlink ref="A122" r:id="rId6" location="" tooltip="" display="https://www.kaggle.com/code/vaibhavkumbhar/credit-score-classification-xgb"/>
-    <hyperlink ref="A128" r:id="rId7" location="" tooltip="" display="https://www.kaggle.com/code/sayamkumar/credit-score-classification"/>
-    <hyperlink ref="A171" r:id="rId8" location="" tooltip="" display="https://www.kaggle.com/code/kirtanmatalia26/credit-score-classification-using-randomforest"/>
-    <hyperlink ref="A177" r:id="rId9" location="" tooltip="" display="https://www.kaggle.com/code/saloni1712/credit-score-classification"/>
-    <hyperlink ref="A204" r:id="rId10" location="" tooltip="" display="https://www.kaggle.com/code/sudhanshu2198/multi-class-credit-score-classification"/>
-    <hyperlink ref="A220" r:id="rId11" location="" tooltip="" display="https://www.kaggle.com/code/sagirahamim3/eda-dp-fe-fcnn-rf-knn-xgb-hgdb-ensemble-acc-85"/>
-    <hyperlink ref="A247" r:id="rId12" location="" tooltip="" display="https://www.kaggle.com/code/ahmedelrawy/credit-score-classification-acc-95"/>
+    <hyperlink ref="A31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A47" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A107" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A122" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A128" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A171" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A177" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A204" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A220" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A247" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A268" r:id="rId13" xr:uid="{7DE806D5-0A61-42A8-BDEB-DDA9416C028C}"/>
+    <hyperlink ref="A271" r:id="rId14" xr:uid="{6F3FD539-172D-47CE-920C-9DF15AD9052A}"/>
+    <hyperlink ref="A259" r:id="rId15" xr:uid="{7A282360-CB9E-41AF-9755-3428FB1A29CF}"/>
+    <hyperlink ref="A277" r:id="rId16" xr:uid="{3221660A-FF1D-4328-A18A-D97908149EFD}"/>
+    <hyperlink ref="A291" r:id="rId17" xr:uid="{CFF119AF-5998-4B47-B40C-01278501D697}"/>
+    <hyperlink ref="A296" r:id="rId18" xr:uid="{8099DBDB-1045-466D-AE1B-07EFB925B394}"/>
+    <hyperlink ref="A299" r:id="rId19" xr:uid="{A7DFC896-6BAE-4444-9E23-C2A1B0314AD4}"/>
+    <hyperlink ref="A311" r:id="rId20" xr:uid="{EE4F1DC1-E51D-4BB2-8EA7-423D334DBF6B}"/>
+    <hyperlink ref="A322" r:id="rId21" xr:uid="{81129E42-CEE3-4610-80B6-98689067CC2F}"/>
+    <hyperlink ref="A325" r:id="rId22" xr:uid="{A77BA672-DB98-4E52-8FA2-1B4F008BC842}"/>
+    <hyperlink ref="A329" r:id="rId23" xr:uid="{62F3A4DE-F5FA-4508-80FA-A2792C3FBBBC}"/>
+    <hyperlink ref="A332" r:id="rId24" xr:uid="{DB536A66-03DF-425C-BDFA-CE516D5841C1}"/>
+    <hyperlink ref="A337" r:id="rId25" xr:uid="{B5CC76F4-8F75-4F65-B852-A4B5489582CD}"/>
+    <hyperlink ref="A340" r:id="rId26" xr:uid="{19FB60A7-73CC-4237-9A06-592B32E2185D}"/>
+    <hyperlink ref="A346" r:id="rId27" xr:uid="{9F1C28BB-0E65-4000-A9EB-CFD4E593598A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/data/Data_Description.xlsx
+++ b/data/Data_Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\dh01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B395F9C1-284E-4AB1-BBAD-87453B4C93DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66626A9-2BDE-420C-B050-040C44FA5760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,19 +165,6 @@
     <t>. Removing these outliers may increase False Positive for Good Score</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>https://www.kaggle.com/code/samarchhetri/credit-score-classification</t>
-    </r>
-  </si>
-  <si>
     <t>랜덤으로 채워넣음</t>
   </si>
   <si>
@@ -2597,6 +2584,10 @@
   </si>
   <si>
     <t>Monthly_Inhand_Salary (월 실수령 급여)</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -4633,8 +4624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" customHeight="1"/>
@@ -4665,7 +4656,7 @@
     </row>
     <row r="2" spans="1:11" ht="16.05" customHeight="1">
       <c r="A2" s="71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -4682,7 +4673,7 @@
     </row>
     <row r="3" spans="1:11" ht="16.05" customHeight="1">
       <c r="A3" s="71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -4699,7 +4690,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.05" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -4716,7 +4707,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.05" customHeight="1">
       <c r="A5" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -4733,7 +4724,7 @@
     </row>
     <row r="6" spans="1:11" ht="16.05" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -4750,7 +4741,7 @@
     </row>
     <row r="7" spans="1:11" ht="16.05" customHeight="1">
       <c r="A7" s="71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -4767,13 +4758,13 @@
     </row>
     <row r="8" spans="1:11" ht="16.05" customHeight="1">
       <c r="A8" s="72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4786,7 +4777,7 @@
     </row>
     <row r="9" spans="1:11" ht="16.05" customHeight="1">
       <c r="A9" s="70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -4803,13 +4794,13 @@
     </row>
     <row r="10" spans="1:11" ht="16.05" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4822,7 +4813,7 @@
     </row>
     <row r="11" spans="1:11" ht="16.05" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -4839,7 +4830,7 @@
     </row>
     <row r="12" spans="1:11" ht="16.05" customHeight="1">
       <c r="A12" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -4856,7 +4847,7 @@
     </row>
     <row r="13" spans="1:11" ht="16.05" customHeight="1">
       <c r="A13" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -4873,7 +4864,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.05" customHeight="1">
       <c r="A14" s="70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
@@ -4890,13 +4881,13 @@
     </row>
     <row r="15" spans="1:11" ht="16.05" customHeight="1">
       <c r="A15" s="72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4909,13 +4900,13 @@
     </row>
     <row r="16" spans="1:11" ht="16.05" customHeight="1">
       <c r="A16" s="70" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4928,13 +4919,13 @@
     </row>
     <row r="17" spans="1:11" ht="16.05" customHeight="1">
       <c r="A17" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4947,13 +4938,13 @@
     </row>
     <row r="18" spans="1:11" ht="16.05" customHeight="1">
       <c r="A18" s="70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -4966,13 +4957,13 @@
     </row>
     <row r="19" spans="1:11" ht="16.05" customHeight="1">
       <c r="A19" s="70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -4985,13 +4976,13 @@
     </row>
     <row r="20" spans="1:11" ht="16.05" customHeight="1">
       <c r="A20" s="72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B20" s="73" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -5004,7 +4995,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.05" customHeight="1">
       <c r="A21" s="70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
@@ -5021,7 +5012,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.05" customHeight="1">
       <c r="A22" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
@@ -5038,13 +5029,13 @@
     </row>
     <row r="23" spans="1:11" ht="16.05" customHeight="1">
       <c r="A23" s="70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5057,7 +5048,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.05" customHeight="1">
       <c r="A24" s="72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="73" t="s">
         <v>27</v>
@@ -5078,7 +5069,7 @@
     </row>
     <row r="25" spans="1:11" ht="16.05" customHeight="1">
       <c r="A25" s="70" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
@@ -5095,13 +5086,13 @@
     </row>
     <row r="26" spans="1:11" ht="16.05" customHeight="1">
       <c r="A26" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5114,13 +5105,13 @@
     </row>
     <row r="27" spans="1:11" ht="16.05" customHeight="1">
       <c r="A27" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -5133,13 +5124,13 @@
     </row>
     <row r="28" spans="1:11" ht="16.05" customHeight="1">
       <c r="A28" s="70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5152,7 +5143,7 @@
     </row>
     <row r="29" spans="1:11" ht="16.05" customHeight="1">
       <c r="A29" s="72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>34</v>
@@ -5258,12 +5249,12 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>41</v>
+      <c r="A36" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -5276,7 +5267,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.05" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -5291,11 +5282,11 @@
     </row>
     <row r="38" spans="1:11" ht="16.05" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -5308,7 +5299,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.05" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -5325,7 +5316,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5340,7 +5331,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -5355,7 +5346,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -5370,7 +5361,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -5398,7 +5389,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -5424,11 +5415,11 @@
     </row>
     <row r="47" spans="1:11" ht="191.85" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -5469,7 +5460,7 @@
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -5497,7 +5488,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -5512,7 +5503,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -5527,7 +5518,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -5542,7 +5533,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -5557,7 +5548,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -5572,7 +5563,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -5587,7 +5578,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5602,7 +5593,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5617,7 +5608,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -5632,7 +5623,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5647,7 +5638,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5662,7 +5653,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5703,7 +5694,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5718,7 +5709,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5733,7 +5724,7 @@
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5748,7 +5739,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5776,7 +5767,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5804,7 +5795,7 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -5884,7 +5875,7 @@
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -5938,7 +5929,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -5953,7 +5944,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -5986,7 +5977,7 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -6024,7 +6015,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -6039,7 +6030,7 @@
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -6054,7 +6045,7 @@
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -6069,7 +6060,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -6084,7 +6075,7 @@
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -6099,7 +6090,7 @@
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -6114,7 +6105,7 @@
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -6129,7 +6120,7 @@
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -6144,7 +6135,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -6185,7 +6176,7 @@
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -6200,7 +6191,7 @@
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -6215,7 +6206,7 @@
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -6243,7 +6234,7 @@
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -6282,7 +6273,7 @@
     </row>
     <row r="107" spans="1:11" ht="16.05" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6440,7 +6431,7 @@
     </row>
     <row r="119" spans="1:11" ht="16.05" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6481,7 +6472,7 @@
     </row>
     <row r="122" spans="1:11" ht="16.05" customHeight="1">
       <c r="A122" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6509,7 +6500,7 @@
     </row>
     <row r="124" spans="1:11" ht="16.05" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6524,7 +6515,7 @@
     </row>
     <row r="125" spans="1:11" ht="16.05" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6565,11 +6556,11 @@
     </row>
     <row r="128" spans="1:11" ht="16.05" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6582,11 +6573,11 @@
     </row>
     <row r="129" spans="1:11" ht="49.05" customHeight="1">
       <c r="A129" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6614,7 +6605,7 @@
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -6629,7 +6620,7 @@
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -6644,7 +6635,7 @@
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6671,10 +6662,10 @@
     <row r="135" spans="1:11" ht="16.05" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6688,10 +6679,10 @@
     <row r="136" spans="1:11" ht="16.05" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -6706,7 +6697,7 @@
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -6721,7 +6712,7 @@
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6736,7 +6727,7 @@
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -6777,7 +6768,7 @@
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -6792,7 +6783,7 @@
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -6820,7 +6811,7 @@
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -6835,7 +6826,7 @@
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -6850,7 +6841,7 @@
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -6917,7 +6908,7 @@
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -6983,10 +6974,10 @@
     <row r="157" spans="1:11" ht="16.05" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -7001,7 +6992,7 @@
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -7015,7 +7006,7 @@
     <row r="159" spans="1:11" ht="16.05" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -7030,7 +7021,7 @@
     <row r="160" spans="1:11" ht="16.05" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -7045,7 +7036,7 @@
     <row r="161" spans="1:11" ht="39.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -7060,7 +7051,7 @@
     <row r="162" spans="1:11" ht="16.05" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -7075,7 +7066,7 @@
     <row r="163" spans="1:11" ht="28.95" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C163" s="18">
         <v>0.82</v>
@@ -7092,7 +7083,7 @@
     <row r="164" spans="1:11" ht="16.05" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -7107,7 +7098,7 @@
     <row r="165" spans="1:11" ht="16.05" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -7135,7 +7126,7 @@
     <row r="167" spans="1:11" ht="16.05" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -7188,11 +7179,11 @@
     </row>
     <row r="171" spans="1:11" ht="16.05" customHeight="1">
       <c r="A171" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -7207,7 +7198,7 @@
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -7272,7 +7263,7 @@
     </row>
     <row r="177" spans="1:11" ht="16.05" customHeight="1">
       <c r="A177" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7288,10 +7279,10 @@
     <row r="178" spans="1:11" ht="16.05" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -7306,7 +7297,7 @@
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -7321,7 +7312,7 @@
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -7336,7 +7327,7 @@
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -7351,7 +7342,7 @@
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -7364,11 +7355,11 @@
     </row>
     <row r="183" spans="1:11" ht="19.95" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -7383,7 +7374,7 @@
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -7403,7 +7394,7 @@
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -7441,7 +7432,7 @@
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -7469,7 +7460,7 @@
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -7501,7 +7492,7 @@
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
@@ -7513,7 +7504,7 @@
     <row r="193" spans="1:11" ht="16.05" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -7528,7 +7519,7 @@
     <row r="194" spans="1:11" ht="16.05" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -7544,7 +7535,7 @@
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -7559,7 +7550,7 @@
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -7665,11 +7656,11 @@
     </row>
     <row r="204" spans="1:11" ht="19.95" customHeight="1">
       <c r="A204" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -7683,10 +7674,10 @@
     <row r="205" spans="1:11" ht="19.95" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C205" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -7701,7 +7692,7 @@
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -7716,7 +7707,7 @@
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -7742,10 +7733,10 @@
     </row>
     <row r="209" spans="1:11" ht="19.95" customHeight="1">
       <c r="A209" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B209" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="B209" s="21" t="s">
-        <v>152</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -7773,7 +7764,7 @@
     <row r="211" spans="1:11" ht="19.95" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -7788,7 +7779,7 @@
     <row r="212" spans="1:11" ht="19.95" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -7829,7 +7820,7 @@
     <row r="215" spans="1:11" ht="19.95" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7844,7 +7835,7 @@
     <row r="216" spans="1:11" ht="19.95" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -7859,7 +7850,7 @@
     <row r="217" spans="1:11" ht="19.95" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -7899,10 +7890,10 @@
     </row>
     <row r="220" spans="1:11" ht="19.95" customHeight="1">
       <c r="A220" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B220" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="B220" s="19" t="s">
-        <v>159</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -7930,7 +7921,7 @@
     <row r="222" spans="1:11" ht="19.95" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -7958,7 +7949,7 @@
     <row r="224" spans="1:11" ht="19.95" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -7973,10 +7964,10 @@
     <row r="225" spans="1:11" ht="19.95" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C225" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7990,7 +7981,7 @@
     <row r="226" spans="1:11" ht="19.95" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -8031,7 +8022,7 @@
     <row r="229" spans="1:11" ht="19.95" customHeight="1">
       <c r="A229" s="4"/>
       <c r="B229" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -8059,7 +8050,7 @@
     <row r="231" spans="1:11" ht="19.95" customHeight="1">
       <c r="A231" s="4"/>
       <c r="B231" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -8087,7 +8078,7 @@
     <row r="233" spans="1:11" ht="37.049999999999997" customHeight="1">
       <c r="A233" s="4"/>
       <c r="B233" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -8102,7 +8093,7 @@
     <row r="234" spans="1:11" ht="19.95" customHeight="1">
       <c r="A234" s="4"/>
       <c r="B234" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -8143,7 +8134,7 @@
     <row r="237" spans="1:11" ht="19.95" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -8171,7 +8162,7 @@
     <row r="239" spans="1:11" ht="19.95" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -8186,7 +8177,7 @@
     <row r="240" spans="1:11" ht="37.049999999999997" customHeight="1">
       <c r="A240" s="4"/>
       <c r="B240" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -8214,7 +8205,7 @@
     <row r="242" spans="1:11" ht="19.95" customHeight="1">
       <c r="A242" s="4"/>
       <c r="B242" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -8280,7 +8271,7 @@
     </row>
     <row r="247" spans="1:11" ht="19.95" customHeight="1">
       <c r="A247" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -8295,7 +8286,7 @@
     </row>
     <row r="248" spans="1:11" ht="19.95" customHeight="1">
       <c r="A248" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -8378,7 +8369,7 @@
         <v>7.29</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -8393,7 +8384,7 @@
     <row r="255" spans="1:11" ht="19.95" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -8408,7 +8399,7 @@
     <row r="256" spans="1:11" ht="19.95" customHeight="1">
       <c r="A256" s="4"/>
       <c r="B256" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -8435,7 +8426,7 @@
     </row>
     <row r="258" spans="1:11" ht="19.95" customHeight="1">
       <c r="A258" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -8450,11 +8441,11 @@
     </row>
     <row r="259" spans="1:11" ht="19.95" customHeight="1">
       <c r="A259" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B259" s="22"/>
       <c r="C259" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8468,7 +8459,7 @@
     <row r="260" spans="1:11" ht="19.95" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C260" s="28"/>
       <c r="D260" s="4"/>
@@ -8483,7 +8474,7 @@
     <row r="261" spans="1:11" ht="33" customHeight="1">
       <c r="A261" s="4"/>
       <c r="B261" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -8498,7 +8489,7 @@
     <row r="262" spans="1:11" ht="19.95" customHeight="1">
       <c r="A262" s="30"/>
       <c r="B262" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -8513,7 +8504,7 @@
     <row r="263" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C263" s="33"/>
       <c r="D263" s="33"/>
@@ -8528,7 +8519,7 @@
     <row r="264" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A264" s="35"/>
       <c r="B264" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="37"/>
@@ -8543,7 +8534,7 @@
     <row r="265" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A265" s="39"/>
       <c r="B265" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="37"/>
@@ -8558,7 +8549,7 @@
     <row r="266" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A266" s="39"/>
       <c r="B266" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="37"/>
@@ -8573,7 +8564,7 @@
     <row r="267" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A267" s="39"/>
       <c r="B267" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="37"/>
@@ -8587,7 +8578,7 @@
     </row>
     <row r="268" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A268" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B268" s="37"/>
       <c r="C268" s="37"/>
@@ -8603,7 +8594,7 @@
     <row r="269" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A269" s="39"/>
       <c r="B269" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="37"/>
@@ -8618,7 +8609,7 @@
     <row r="270" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A270" s="39"/>
       <c r="B270" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
@@ -8632,7 +8623,7 @@
     </row>
     <row r="271" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A271" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B271" s="37"/>
       <c r="C271" s="37"/>
@@ -8647,10 +8638,10 @@
     </row>
     <row r="272" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A272" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B272" s="43" t="s">
         <v>193</v>
-      </c>
-      <c r="B272" s="43" t="s">
-        <v>194</v>
       </c>
       <c r="C272" s="37"/>
       <c r="D272" s="37"/>
@@ -8716,7 +8707,7 @@
     </row>
     <row r="277" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A277" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B277" s="39"/>
       <c r="C277" s="37"/>
@@ -8732,7 +8723,7 @@
     <row r="278" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A278" s="35"/>
       <c r="B278" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C278" s="37"/>
       <c r="D278" s="37"/>
@@ -8747,7 +8738,7 @@
     <row r="279" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A279" s="39"/>
       <c r="B279" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C279" s="37"/>
       <c r="D279" s="37"/>
@@ -8762,7 +8753,7 @@
     <row r="280" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A280" s="39"/>
       <c r="B280" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C280" s="37"/>
       <c r="D280" s="37"/>
@@ -8777,7 +8768,7 @@
     <row r="281" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A281" s="39"/>
       <c r="B281" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
@@ -8792,7 +8783,7 @@
     <row r="282" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A282" s="39"/>
       <c r="B282" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C282" s="37"/>
       <c r="D282" s="37"/>
@@ -8807,7 +8798,7 @@
     <row r="283" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A283" s="39"/>
       <c r="B283" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C283" s="37"/>
       <c r="D283" s="37"/>
@@ -8822,7 +8813,7 @@
     <row r="284" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A284" s="39"/>
       <c r="B284" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
@@ -8837,7 +8828,7 @@
     <row r="285" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A285" s="39"/>
       <c r="B285" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C285" s="37"/>
       <c r="D285" s="37"/>
@@ -8852,10 +8843,10 @@
     <row r="286" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A286" s="39"/>
       <c r="B286" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C286" s="43" t="s">
         <v>204</v>
-      </c>
-      <c r="C286" s="43" t="s">
-        <v>205</v>
       </c>
       <c r="D286" s="37"/>
       <c r="E286" s="37"/>
@@ -8869,10 +8860,10 @@
     <row r="287" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A287" s="39"/>
       <c r="B287" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C287" s="43" t="s">
         <v>206</v>
-      </c>
-      <c r="C287" s="43" t="s">
-        <v>207</v>
       </c>
       <c r="D287" s="37"/>
       <c r="E287" s="37"/>
@@ -8886,7 +8877,7 @@
     <row r="288" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A288" s="39"/>
       <c r="B288" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C288" s="37"/>
       <c r="D288" s="37"/>
@@ -8901,7 +8892,7 @@
     <row r="289" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A289" s="39"/>
       <c r="B289" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C289" s="37"/>
       <c r="D289" s="37"/>
@@ -8916,7 +8907,7 @@
     <row r="290" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A290" s="39"/>
       <c r="B290" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C290" s="37"/>
       <c r="D290" s="37"/>
@@ -8930,7 +8921,7 @@
     </row>
     <row r="291" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A291" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B291" s="37"/>
       <c r="C291" s="37"/>
@@ -8946,7 +8937,7 @@
     <row r="292" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A292" s="39"/>
       <c r="B292" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="37"/>
@@ -8961,7 +8952,7 @@
     <row r="293" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A293" s="39"/>
       <c r="B293" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C293" s="37"/>
       <c r="D293" s="37"/>
@@ -9001,7 +8992,7 @@
     </row>
     <row r="296" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A296" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B296" s="37"/>
       <c r="C296" s="37"/>
@@ -9016,7 +9007,7 @@
     </row>
     <row r="297" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A297" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B297" s="37"/>
       <c r="C297" s="37"/>
@@ -9031,7 +9022,7 @@
     </row>
     <row r="298" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A298" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B298" s="37"/>
       <c r="C298" s="37"/>
@@ -9046,11 +9037,11 @@
     </row>
     <row r="299" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A299" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B299" s="37"/>
       <c r="C299" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D299" s="50"/>
       <c r="E299" s="50"/>
@@ -9063,7 +9054,7 @@
     </row>
     <row r="300" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A300" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B300" s="37"/>
       <c r="C300" s="37"/>
@@ -9078,7 +9069,7 @@
     </row>
     <row r="301" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A301" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B301" s="37"/>
       <c r="C301" s="37"/>
@@ -9093,7 +9084,7 @@
     </row>
     <row r="302" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A302" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B302" s="37"/>
       <c r="C302" s="37"/>
@@ -9108,7 +9099,7 @@
     </row>
     <row r="303" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A303" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B303" s="37"/>
       <c r="C303" s="37"/>
@@ -9123,7 +9114,7 @@
     </row>
     <row r="304" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A304" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B304" s="37"/>
       <c r="C304" s="37"/>
@@ -9138,10 +9129,10 @@
     </row>
     <row r="305" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A305" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B305" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="B305" s="43" t="s">
-        <v>225</v>
       </c>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
@@ -9156,7 +9147,7 @@
     <row r="306" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A306" s="52"/>
       <c r="B306" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C306" s="37"/>
       <c r="D306" s="37"/>
@@ -9170,7 +9161,7 @@
     </row>
     <row r="307" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A307" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B307" s="37"/>
       <c r="C307" s="37"/>
@@ -9185,7 +9176,7 @@
     </row>
     <row r="308" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A308" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B308" s="37"/>
       <c r="C308" s="37"/>
@@ -9200,7 +9191,7 @@
     </row>
     <row r="309" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A309" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B309" s="37"/>
       <c r="C309" s="37"/>
@@ -9228,7 +9219,7 @@
     </row>
     <row r="311" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A311" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B311" s="37"/>
       <c r="C311" s="37"/>
@@ -9321,7 +9312,7 @@
     </row>
     <row r="318" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A318" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B318" s="37"/>
       <c r="C318" s="37"/>
@@ -9336,7 +9327,7 @@
     </row>
     <row r="319" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A319" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B319" s="37"/>
       <c r="C319" s="37"/>
@@ -9351,7 +9342,7 @@
     </row>
     <row r="320" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A320" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B320" s="37"/>
       <c r="C320" s="37"/>
@@ -9366,7 +9357,7 @@
     </row>
     <row r="321" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A321" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B321" s="37"/>
       <c r="C321" s="37"/>
@@ -9381,7 +9372,7 @@
     </row>
     <row r="322" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A322" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B322" s="37"/>
       <c r="C322" s="37"/>
@@ -9396,7 +9387,7 @@
     </row>
     <row r="323" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A323" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B323" s="37"/>
       <c r="C323" s="37"/>
@@ -9424,7 +9415,7 @@
     </row>
     <row r="325" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A325" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B325" s="37"/>
       <c r="C325" s="37"/>
@@ -9439,7 +9430,7 @@
     </row>
     <row r="326" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A326" s="56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B326" s="37"/>
       <c r="C326" s="37"/>
@@ -9454,7 +9445,7 @@
     </row>
     <row r="327" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A327" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B327" s="37"/>
       <c r="C327" s="37"/>
@@ -9482,7 +9473,7 @@
     </row>
     <row r="329" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A329" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B329" s="37"/>
       <c r="C329" s="37"/>
@@ -9497,7 +9488,7 @@
     </row>
     <row r="330" spans="1:11" ht="96.6" customHeight="1">
       <c r="A330" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B330" s="37"/>
       <c r="C330" s="37"/>
@@ -9525,7 +9516,7 @@
     </row>
     <row r="332" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A332" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B332" s="37"/>
       <c r="C332" s="37"/>
@@ -9540,7 +9531,7 @@
     </row>
     <row r="333" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A333" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B333" s="37"/>
       <c r="C333" s="37"/>
@@ -9555,7 +9546,7 @@
     </row>
     <row r="334" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A334" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B334" s="37"/>
       <c r="C334" s="37"/>
@@ -9596,7 +9587,7 @@
     </row>
     <row r="337" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A337" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B337" s="37"/>
       <c r="C337" s="37"/>
@@ -9611,7 +9602,7 @@
     </row>
     <row r="338" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A338" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B338" s="37"/>
       <c r="C338" s="37"/>
@@ -9639,7 +9630,7 @@
     </row>
     <row r="340" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A340" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B340" s="37"/>
       <c r="C340" s="37"/>
@@ -9654,7 +9645,7 @@
     </row>
     <row r="341" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A341" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B341" s="37"/>
       <c r="C341" s="37"/>
@@ -9669,7 +9660,7 @@
     </row>
     <row r="342" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A342" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B342" s="37"/>
       <c r="C342" s="37"/>
@@ -9684,7 +9675,7 @@
     </row>
     <row r="343" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A343" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B343" s="37"/>
       <c r="C343" s="37"/>
@@ -9699,7 +9690,7 @@
     </row>
     <row r="344" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A344" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B344" s="37"/>
       <c r="C344" s="37"/>
@@ -9714,7 +9705,7 @@
     </row>
     <row r="345" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A345" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B345" s="37"/>
       <c r="C345" s="37"/>
@@ -9729,7 +9720,7 @@
     </row>
     <row r="346" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A346" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B346" s="37"/>
       <c r="C346" s="37"/>
@@ -9744,7 +9735,7 @@
     </row>
     <row r="347" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A347" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B347" s="37"/>
       <c r="C347" s="37"/>
@@ -9759,7 +9750,7 @@
     </row>
     <row r="348" spans="1:11" ht="149.4" customHeight="1">
       <c r="A348" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B348" s="37"/>
       <c r="C348" s="37"/>
@@ -9774,7 +9765,7 @@
     </row>
     <row r="349" spans="1:11" ht="149.4" customHeight="1">
       <c r="A349" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B349" s="37"/>
       <c r="C349" s="37"/>
@@ -9789,7 +9780,7 @@
     </row>
     <row r="350" spans="1:11" ht="149.4" customHeight="1">
       <c r="A350" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B350" s="37"/>
       <c r="C350" s="37"/>
@@ -9817,7 +9808,7 @@
     </row>
     <row r="352" spans="1:11" ht="149.4" customHeight="1">
       <c r="A352" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B352" s="37"/>
       <c r="C352" s="37"/>
@@ -9845,7 +9836,7 @@
     </row>
     <row r="354" spans="1:11" ht="149.4" customHeight="1">
       <c r="A354" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B354" s="37"/>
       <c r="C354" s="37"/>
@@ -9873,7 +9864,7 @@
     </row>
     <row r="356" spans="1:11" ht="149.4" customHeight="1">
       <c r="A356" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B356" s="37"/>
       <c r="C356" s="37"/>
@@ -9901,7 +9892,7 @@
     </row>
     <row r="358" spans="1:11" ht="149.4" customHeight="1">
       <c r="A358" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B358" s="37"/>
       <c r="C358" s="37"/>
@@ -9929,7 +9920,7 @@
     </row>
     <row r="360" spans="1:11" ht="149.4" customHeight="1">
       <c r="A360" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B360" s="37"/>
       <c r="C360" s="37"/>
@@ -9957,7 +9948,7 @@
     </row>
     <row r="362" spans="1:11" ht="149.4" customHeight="1">
       <c r="A362" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B362" s="37"/>
       <c r="C362" s="37"/>
@@ -9985,7 +9976,7 @@
     </row>
     <row r="364" spans="1:11" ht="149.4" customHeight="1">
       <c r="A364" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B364" s="37"/>
       <c r="C364" s="37"/>
@@ -10013,7 +10004,7 @@
     </row>
     <row r="366" spans="1:11" ht="149.4" customHeight="1">
       <c r="A366" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B366" s="37"/>
       <c r="C366" s="37"/>
@@ -10041,7 +10032,7 @@
     </row>
     <row r="368" spans="1:11" ht="149.4" customHeight="1">
       <c r="A368" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B368" s="37"/>
       <c r="C368" s="37"/>
@@ -10069,7 +10060,7 @@
     </row>
     <row r="370" spans="1:11" ht="149.4" customHeight="1">
       <c r="A370" s="57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B370" s="37"/>
       <c r="C370" s="37"/>
@@ -10097,7 +10088,7 @@
     </row>
     <row r="372" spans="1:11" ht="149.4" customHeight="1">
       <c r="A372" s="57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B372" s="37"/>
       <c r="C372" s="37"/>
@@ -10125,7 +10116,7 @@
     </row>
     <row r="374" spans="1:11" ht="149.4" customHeight="1">
       <c r="A374" s="57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B374" s="37"/>
       <c r="C374" s="37"/>
@@ -10153,7 +10144,7 @@
     </row>
     <row r="376" spans="1:11" ht="149.4" customHeight="1">
       <c r="A376" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B376" s="37"/>
       <c r="C376" s="37"/>
@@ -10181,7 +10172,7 @@
     </row>
     <row r="378" spans="1:11" ht="149.4" customHeight="1">
       <c r="A378" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B378" s="37"/>
       <c r="C378" s="37"/>
@@ -10209,7 +10200,7 @@
     </row>
     <row r="380" spans="1:11" ht="149.4" customHeight="1">
       <c r="A380" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B380" s="37"/>
       <c r="C380" s="37"/>
@@ -10237,7 +10228,7 @@
     </row>
     <row r="382" spans="1:11" ht="149.4" customHeight="1">
       <c r="A382" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B382" s="37"/>
       <c r="C382" s="37"/>
@@ -10265,7 +10256,7 @@
     </row>
     <row r="384" spans="1:11" ht="149.4" customHeight="1">
       <c r="A384" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B384" s="37"/>
       <c r="C384" s="37"/>
@@ -10293,7 +10284,7 @@
     </row>
     <row r="386" spans="1:11" ht="149.4" customHeight="1">
       <c r="A386" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B386" s="37"/>
       <c r="C386" s="37"/>
@@ -10321,7 +10312,7 @@
     </row>
     <row r="388" spans="1:11" ht="149.4" customHeight="1">
       <c r="A388" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B388" s="37"/>
       <c r="C388" s="37"/>
@@ -10349,10 +10340,10 @@
     </row>
     <row r="390" spans="1:11" ht="149.4" customHeight="1">
       <c r="A390" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B390" s="43" t="s">
         <v>277</v>
-      </c>
-      <c r="B390" s="43" t="s">
-        <v>278</v>
       </c>
       <c r="C390" s="37"/>
       <c r="D390" s="37"/>
@@ -10379,10 +10370,10 @@
     </row>
     <row r="392" spans="1:11" ht="149.4" customHeight="1">
       <c r="A392" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B392" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C392" s="37"/>
       <c r="D392" s="37"/>
@@ -10397,7 +10388,7 @@
     <row r="393" spans="1:11" ht="19.95" customHeight="1">
       <c r="A393" s="58"/>
       <c r="B393" s="59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C393" s="37"/>
       <c r="D393" s="37"/>
@@ -10412,7 +10403,7 @@
     <row r="394" spans="1:11" ht="19.95" customHeight="1">
       <c r="A394" s="58"/>
       <c r="B394" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C394" s="37"/>
       <c r="D394" s="37"/>
@@ -10439,10 +10430,10 @@
     </row>
     <row r="396" spans="1:11" ht="149.4" customHeight="1">
       <c r="A396" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B396" s="47" t="s">
         <v>282</v>
-      </c>
-      <c r="B396" s="47" t="s">
-        <v>283</v>
       </c>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
@@ -10457,7 +10448,7 @@
     <row r="397" spans="1:11" ht="149.4" customHeight="1">
       <c r="A397" s="58"/>
       <c r="B397" s="61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C397" s="37"/>
       <c r="D397" s="37"/>
@@ -10471,7 +10462,7 @@
     </row>
     <row r="398" spans="1:11" ht="149.4" customHeight="1">
       <c r="A398" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B398" s="37"/>
       <c r="C398" s="37"/>
@@ -10499,7 +10490,7 @@
     </row>
     <row r="400" spans="1:11" ht="149.4" customHeight="1">
       <c r="A400" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B400" s="37"/>
       <c r="C400" s="37"/>
@@ -10527,10 +10518,10 @@
     </row>
     <row r="402" spans="1:11" ht="149.4" customHeight="1">
       <c r="A402" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="B402" s="59" t="s">
         <v>287</v>
-      </c>
-      <c r="B402" s="59" t="s">
-        <v>288</v>
       </c>
       <c r="C402" s="37"/>
       <c r="D402" s="37"/>
@@ -10545,7 +10536,7 @@
     <row r="403" spans="1:11" ht="29.7" customHeight="1">
       <c r="A403" s="58"/>
       <c r="B403" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
@@ -10559,7 +10550,7 @@
     </row>
     <row r="404" spans="1:11" ht="149.4" customHeight="1">
       <c r="A404" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B404" s="37"/>
       <c r="C404" s="37"/>
@@ -10587,10 +10578,10 @@
     </row>
     <row r="406" spans="1:11" ht="149.4" customHeight="1">
       <c r="A406" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="B406" s="43" t="s">
         <v>290</v>
-      </c>
-      <c r="B406" s="43" t="s">
-        <v>291</v>
       </c>
       <c r="C406" s="37"/>
       <c r="D406" s="37"/>
@@ -10617,7 +10608,7 @@
     </row>
     <row r="408" spans="1:11" ht="149.4" customHeight="1">
       <c r="A408" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B408" s="37"/>
       <c r="C408" s="37"/>
@@ -10645,7 +10636,7 @@
     </row>
     <row r="410" spans="1:11" ht="149.4" customHeight="1">
       <c r="A410" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B410" s="37"/>
       <c r="C410" s="37"/>
@@ -10673,7 +10664,7 @@
     </row>
     <row r="412" spans="1:11" ht="149.4" customHeight="1">
       <c r="A412" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B412" s="37"/>
       <c r="C412" s="37"/>
@@ -10701,7 +10692,7 @@
     </row>
     <row r="414" spans="1:11" ht="149.4" customHeight="1">
       <c r="A414" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B414" s="37"/>
       <c r="C414" s="37"/>
@@ -10729,7 +10720,7 @@
     </row>
     <row r="416" spans="1:11" ht="149.4" customHeight="1">
       <c r="A416" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B416" s="37"/>
       <c r="C416" s="37"/>
@@ -10757,10 +10748,10 @@
     </row>
     <row r="418" spans="1:11" ht="149.4" customHeight="1">
       <c r="A418" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B418" s="59" t="s">
         <v>297</v>
-      </c>
-      <c r="B418" s="59" t="s">
-        <v>298</v>
       </c>
       <c r="C418" s="37"/>
       <c r="D418" s="37"/>
@@ -10774,10 +10765,10 @@
     </row>
     <row r="419" spans="1:11" ht="30.45" customHeight="1">
       <c r="A419" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="B419" s="43" t="s">
         <v>299</v>
-      </c>
-      <c r="B419" s="43" t="s">
-        <v>300</v>
       </c>
       <c r="C419" s="37"/>
       <c r="D419" s="37"/>
@@ -10805,7 +10796,7 @@
     <row r="421" spans="1:11" ht="19.95" customHeight="1">
       <c r="A421" s="58"/>
       <c r="B421" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C421" s="37"/>
       <c r="D421" s="37"/>
@@ -10820,7 +10811,7 @@
     <row r="422" spans="1:11" ht="19.95" customHeight="1">
       <c r="A422" s="58"/>
       <c r="B422" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
@@ -10848,7 +10839,7 @@
     <row r="424" spans="1:11" ht="16.05" customHeight="1">
       <c r="A424" s="58"/>
       <c r="B424" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
@@ -10875,7 +10866,7 @@
     </row>
     <row r="426" spans="1:11" ht="149.4" customHeight="1">
       <c r="A426" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B426" s="37"/>
       <c r="C426" s="37"/>
@@ -10903,7 +10894,7 @@
     </row>
     <row r="428" spans="1:11" ht="149.4" customHeight="1">
       <c r="A428" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B428" s="37"/>
       <c r="C428" s="37"/>
@@ -10931,7 +10922,7 @@
     </row>
     <row r="430" spans="1:11" ht="149.4" customHeight="1">
       <c r="A430" s="57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B430" s="37"/>
       <c r="C430" s="37"/>
@@ -10959,7 +10950,7 @@
     </row>
     <row r="432" spans="1:11" ht="149.4" customHeight="1">
       <c r="A432" s="57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B432" s="37"/>
       <c r="C432" s="37"/>
@@ -10987,10 +10978,10 @@
     </row>
     <row r="434" spans="1:11" ht="149.4" customHeight="1">
       <c r="A434" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B434" s="63" t="s">
         <v>308</v>
-      </c>
-      <c r="B434" s="63" t="s">
-        <v>309</v>
       </c>
       <c r="C434" s="37"/>
       <c r="D434" s="37"/>
@@ -11005,7 +10996,7 @@
     <row r="435" spans="1:11" ht="36.75" customHeight="1">
       <c r="A435" s="58"/>
       <c r="B435" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C435" s="37"/>
       <c r="D435" s="37"/>
@@ -11033,7 +11024,7 @@
     <row r="437" spans="1:11" ht="36.75" customHeight="1">
       <c r="A437" s="58"/>
       <c r="B437" s="62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C437" s="37"/>
       <c r="D437" s="37"/>
@@ -11060,10 +11051,10 @@
     </row>
     <row r="439" spans="1:11" ht="149.4" customHeight="1">
       <c r="A439" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="B439" s="43" t="s">
         <v>312</v>
-      </c>
-      <c r="B439" s="43" t="s">
-        <v>313</v>
       </c>
       <c r="C439" s="37"/>
       <c r="D439" s="37"/>
@@ -11090,10 +11081,10 @@
     </row>
     <row r="441" spans="1:11" ht="149.4" customHeight="1">
       <c r="A441" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B441" s="43" t="s">
         <v>314</v>
-      </c>
-      <c r="B441" s="43" t="s">
-        <v>315</v>
       </c>
       <c r="C441" s="37"/>
       <c r="D441" s="37"/>
@@ -11120,10 +11111,10 @@
     </row>
     <row r="443" spans="1:11" ht="149.4" customHeight="1">
       <c r="A443" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="B443" s="43" t="s">
         <v>316</v>
-      </c>
-      <c r="B443" s="43" t="s">
-        <v>317</v>
       </c>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
@@ -11150,10 +11141,10 @@
     </row>
     <row r="445" spans="1:11" ht="149.4" customHeight="1">
       <c r="A445" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="B445" s="43" t="s">
         <v>318</v>
-      </c>
-      <c r="B445" s="43" t="s">
-        <v>319</v>
       </c>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
@@ -11180,10 +11171,10 @@
     </row>
     <row r="447" spans="1:11" ht="149.4" customHeight="1">
       <c r="A447" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B447" s="66" t="s">
         <v>320</v>
-      </c>
-      <c r="B447" s="66" t="s">
-        <v>321</v>
       </c>
       <c r="C447" s="67"/>
       <c r="D447" s="67"/>
@@ -11200,7 +11191,7 @@
   <hyperlinks>
     <hyperlink ref="A31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A36" r:id="rId3" display="https://www.kaggle.com/code/samarchhetri/credit-score-classification" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A47" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A107" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A122" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>

--- a/data/Data_Description.xlsx
+++ b/data/Data_Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\dh01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66626A9-2BDE-420C-B050-040C44FA5760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD15FD9E-70CA-4EA4-8462-F68F5D334D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4624,8 +4624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" customHeight="1"/>

--- a/data/Data_Description.xlsx
+++ b/data/Data_Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\dh01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD15FD9E-70CA-4EA4-8462-F68F5D334D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0C42D-0011-4500-863F-0738BC41328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2787,7 +2787,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2833,6 +2833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3059,7 +3065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3281,6 +3287,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4624,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" customHeight="1"/>
@@ -4723,7 +4735,7 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="74" t="s">
         <v>355</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4757,7 +4769,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="75" t="s">
         <v>352</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4776,7 +4788,7 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="74" t="s">
         <v>346</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4846,7 +4858,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="74" t="s">
         <v>347</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4899,7 +4911,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="74" t="s">
         <v>336</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -4937,7 +4949,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="74" t="s">
         <v>339</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -4956,7 +4968,7 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="74" t="s">
         <v>338</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4975,7 +4987,7 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="74" t="s">
         <v>358</v>
       </c>
       <c r="B20" s="73" t="s">
@@ -4994,7 +5006,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="74" t="s">
         <v>340</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5028,7 +5040,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="74" t="s">
         <v>356</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5047,7 +5059,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="74" t="s">
         <v>357</v>
       </c>
       <c r="B24" s="73" t="s">
@@ -5068,7 +5080,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="74" t="s">
         <v>359</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5085,7 +5097,7 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="74" t="s">
         <v>342</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5104,7 +5116,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="74" t="s">
         <v>343</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5123,7 +5135,7 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="74" t="s">
         <v>344</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5142,7 +5154,7 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="74" t="s">
         <v>345</v>
       </c>
       <c r="B29" s="5" t="s">
